--- a/src/history.xlsx
+++ b/src/history.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="269">
   <si>
     <t>year</t>
   </si>
@@ -41,625 +41,796 @@
     <t>info</t>
   </si>
   <si>
-    <t>Убийство Павла I. Воцарение Александра I.</t>
+    <t>Всё своё недолгое правление император Павел I боялся заговоров. Тем не менее, он не смог ничего предотвратить: в ночь с 11 на 12 [23 на 24] марта 1801 Павел Петрович был убит в собственной спальне (убийцы ударили его табакеркой в висок и затем задушили шарфом). Во главе заговорщиков стояли князь П.А. Зубов и граф Л.Л. Беннигсен. Сын Павла Александр был посвящён в планы убийц, и до конца своих дней он корил себя за то, что косвенно поучаствовал в убийстве отца. 12 [24] марта был издан манифест о восшествии на престол Александра I, в котором он объявлял, что император Павел I скончался от апоплексического удара, и что Александр будет управлять «Богом врученным народом по законам и по сердцу своей великой бабки», т.е. по заветам Екатерины II. Воцарение Александра в результате убийства Павла было последней насильственной передачей власти вплоть до революции 1917 года. После Александра Павловича престол передался его брату Николаю, а от него по нисходящей линии – всё, как было написано в акте Павла Первого о престолонаследии.</t>
+  </si>
+  <si>
+    <t>12 [23] октября 1799 года дочь Павла I Елена вышла замуж за Фридриха-Людвига, наследного принца Мекленбург-Шверинского. А через неделю, 19 [30] октября 1799, другая дочь Павла Александра вышла замуж за Иосифа-Антона, эрцгерцога Австрийского и палатина Венгерского. Оба брака продлились недолго из-за скорых смертей Великих княжон: 4 [16] марта 1801 года умерла Александра Павловна, а 12 [24] сентября 1803 года умерла Елена Павловна.</t>
+  </si>
+  <si>
+    <t>5 [16] апреля 1797 года, на Пасху, состоялась коронация Павла I в Успенском соборе Московского Кремля. В этот же день вышел новый акт о престолонаследии. Согласно этому документу, устанавливался чёткий порядок наследования престола: по прямой мужской линии от отца к старшему сыну и так до конца ветви, потом наследовала вторая ветвь и так далее. Таким образом, Павел Первый положил конец Эпохи дворцовых переворотов, в ходе которой к власти приходили личности, которые мало имели на это прав (в том числе, и его мать Екатерина Вторая).</t>
+  </si>
+  <si>
+    <t>7 [18] января 1795 года у Павла Петровича и Марии Фёдоровны родилась последняя дочь, названная Анной. А через неделю, 15 [26] января 1795 года в двухлетнем возрасте умерла их другая дочь, Ольга. Она была единственным ребёнком Павла I, который скончался в младенчестве.</t>
+  </si>
+  <si>
+    <t>В начале 1780 года императрица Екатерина II решила отправить в Данию всех четырёх оставшихся в живых детей Анны Леопольдовны и Антона-Ульриха, Екатерину, Елизавету, Петра и Алексея, которые всё это время находились в заточении. Летом 1780 года они впервые вышли за пределы своей тюрьмы в Холмогорах. 30 июня [11 июля] началось их плавание в датский город Хортенс, к их тётке королеве Юлиане-Марии. Прошло больше двух месяцев, прежде чем семейство достигло пункта назначения. Однако в чужой обстановке им жилось очень плохо. «Что мне было в тысячу раз лючше было жить в Холмогорах, нежели в Горсенсе» – писала старшая сестра Екатерина Антоновна. Впоследствии «Антоновичи» стали один за одним умирать. Их не могли даже отпеть в православной церкви – их хоронили в лютеранской церкви по православному обряду.</t>
+  </si>
+  <si>
+    <t>27 апреля [8 мая] 1779 года у Павла Петровича и Марии Фёдоровны родился второй сын, названный Константином (в честь императора Константина Великого). Он воспитывался вместе со своим старшим братом Александром, и императрица Екатерина II также возлагала большие надежды на своего внука: она мечтала, что Константин станет правителем новой воссозданной Византийской империи со столицей в Константинополе.</t>
+  </si>
+  <si>
+    <t>12 [23] декабря 1777 года у Павла Петровича и Марии Фёдоровны родился сын, названный Александром. Екатерина II, подобно Елизавете Петровне, когда-то отнявшей у неё Павла, поступила так же по отношению к самому Павлу: она отняла маленького Александра у родителей и воспитывала его самостоятельно. В итоге императрица воспитала ребёнка «под себя», и даже хотела объявить любимого внука наследником в обход нелюбимого сына. Однако этим планам не суждено было сбыться: Александр был объявлен наследником только по восшествии на престол Павла Первого.</t>
+  </si>
+  <si>
+    <t>10 [21] января 1775 года на Болотной площади в Москве был казнён Емельян Пугачёв. Он выдал себя за покойного императора Петра III и возглавил восстание казаков, которое в 1773-1774 годах охватило всё Поволжье. Это был самый «успешный» самозванец, однако до него было ещё 7 таких же «лже-Петров». Да и Петром Третьим не ограничивались самозванства: авантюристы выдавали себя за Ивана Алексеевича, Алексея Петровича и других. Были и «придуманные личности»: например, знаменитая княжна Тараканова, которая выдавала себя за дочь Елизаветы Петровны.</t>
+  </si>
+  <si>
+    <t>8 [19] июня 1774 года, вероятно, состоялся тайный брак Екатерины Второй и её фаворита, Григория Потёмкина. Через год, в 13 [24] июля 1775 у них родилась дочь Елизавета, получившая фамилию Тёмкина. Но так как перечисленные события официально не были объявлены, то можно только предполагать достоверность этих сведений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В 1768 году императрица Екатерина Вторая первой в России сделала прививку от оспы. Её вместе с сыном Павлом прививал английский врач Т. Димсдейл. Когда французский король Людовик XV умер от оспы, Екатерина говорила: «По-моему, стыдно королю Франции в XVIII столетии умереть от оспы, это варварство». </t>
+  </si>
+  <si>
+    <t>25 декабря 1761 [5 января 1762] года, в канун Рождества, умерла императрица Елизавета Петровна. Императором был провозглашён её племянник Пётр III. Коронацию Пётр Фёдорович решил отложить, пока не будут решены военные вопросы. Но короноваться (при жизни) Пётр так и не успел.</t>
+  </si>
+  <si>
+    <t>20 сентября [1 октября] 1754 года у Екатерины II и Петра III родился долгожданный сын, названный Павлом Петровичем (Павел I). Наследника сразу отлучили от родителей. Екатерина оказалась больше не нужна ни Елизавете (которая занялась воспитанием ребёнка), ни Петру (который завёл себе любовницу). Но она не унывала и посвятила себя самообразованию и изучению российской культуры. Благодаря этому, немецкая принцесса впоследствии станет по-настоящему русской императрицей.</t>
+  </si>
+  <si>
+    <t>27 февраля [10 марта] 1746 года у Анны Леопольдовны и Антона-Ульриха родился сын Алексей. Это был пятый ребёнок в семье бывших правителей страны: до этого после Иоанна Антоновича по очереди родились Екатерина, Елизавета и Пётр. Все эти дети рождались, пока семья была в заточении. Появление каждого ребёнка раздражало Елизавету Петровну: рапорт о рождении Алексея императрица приказала разодрать. Через несколько дней после рождения сына, 7 [18] марта Анна Леопольдовна умерла от послеродовой горячки. Бывшая императрица была похоронена в Александро-Невской Лавре.</t>
+  </si>
+  <si>
+    <t>У Елизаветы Петровны было много женихов, но ни с кем из них так и не было заключено брака. Хотя, согласно слухам, сразу по восшествии на престол, Императрица обвенчалась со своим фаворитом, графом Алексеем Разумовским. Возможно, у них даже были дети. Однако документального подтверждения ни того, ни другого факта не сохранилось.</t>
+  </si>
+  <si>
+    <t>12 [23] августа 1740 года у Анны Леопольдовны и Антона-Ульриха родился сын, названный Иоанном в честь своего прадеда, Иоанна Алексеевича. Официально он именовался Иоанном III (так как считались только цари, начиная с Ивана Грозного), но в историю вошёл как Иоанн VI Антонович. Анна Иоанновна назначила младенца наследником, а регентом до его совершеннолетия должен был стать её фаворит герцог Бирон. 17 [28] октября 1740 года императрица умерла, власть была передана согласно завещанию: императором стал Иоанн Антонович, фактически во главе государства встал Бирон. Но через 3 недели, в ночь на 9 [20] ноября 1740 Бирона сверг его соратник фельдмаршал Миних. Он собрал гвардию у Зимнего дворца, и войска принесла присягу матери Иоанна VI, Анне Леопольдовне. Так началось недолгое правление Анны Леопольдовны и маленького императора, которому не было и года. А всё это время рядом со двором находилась Елизавета Петровна, последняя из оставшихся в живых детей Петра Великого. Она ещё при Анне Иоанновне засматривалась на престол, а теперь, когда у власть претерпевала очередной кризис, Елизавета поняла, что надо действовать. Анне было известно о готовящемся заговоре, но она не воспринимала слухи всерьёз.</t>
+  </si>
+  <si>
+    <t>В 1722 году брак Екатерины Иоанновны и Карла-Леопольда окончательно разрушился: Екатерина вместе с дочерью уехала в Россию, а Карл-Леопольд остался бороться за своё герцогство. И только спустя 11 лет, 12 [23] мая 1733 года Елизавету-Екатерину-Христину наконец крестили в православие. При крещении ей дали имя её тётки императрицы Анны Иоанновны. А через месяц, 14 [25] июня, умерла и сама Екатерина Иоанновна. Карл-Леопольд оставался в Мекленбург-Шверинском герцогстве, так что Анна Леопольдовна воспитывалась одна при русском дворе.</t>
+  </si>
+  <si>
+    <t>В Москве Анне Иоанновне было неуютно, поэтому в 1732 году двор императрицы переезжает обратно в Санкт-Петербург. Город вновь стал полноправной столицей Российской Империи.</t>
+  </si>
+  <si>
+    <t>17 [28] декабря 1731 года Анна Иоанновна издала манифест «Об учинении присяги в верности наследнику Всероссийского престола, который от Ея Императорского Величества назначен будет». Этот манифест по смыслу повторял указ «О наследии престола» Петра Первого от 1722 года: императрица сама должна была решить, кому перейдёт престол после её смерти.</t>
+  </si>
+  <si>
+    <t>Пётр Второй, тесно общаясь с Иваном Долгоруким, влюбился в его сестру, 17-летнюю Екатерину Долгорукую. 30 ноября [11 декабря] 1729 года в Лефортовском дворце состоялось официальное обручение Петра и Екатерины. Свадьба была назначена на январь следующего года. Однако Петру так и не суждено было пожениться.</t>
+  </si>
+  <si>
+    <t>В этом же году двор императора переезжает из Санкт-Петербурга в Москву. Главной причиной было то, что в первой столице было попросту больше возможностей для охоты, а юный император проводил на охоте половину своего времени.</t>
+  </si>
+  <si>
+    <t>Екатерина Первая не обладала талантами государственного деятеля, поэтому реальная власть сосредоточилась в руках ближайшего соратника Петра Первого – Александра Меншикова. Он же стал главой введённого 8 [19] февраля 1726 года Верховного тайного совета. Это был высший совещательный орган при императрице, ведавший основными внутренними и внешними государственными делами. В первоначальный состав Совета, кроме А.Д. Меншикова, вошли: Ф.М. Апраксин, Г.И. Головкин, П.А. Толстой, Д.М. Голицын, А.И. Остерман, а также зять Екатерины Первой Карл-Фридрих. Впоследствии состав менялся: в итоге в Совете стало 9 членов и большинство составляли князья Голицыны и Долгорукие. Верховный тайный совет сыграл важную роль в последующих событиях.</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>30 августа [10 сентября] 1721 года между Россией и Швецией был заключён Ништадтский мир, ознаменовавший окончание Северной войны, которая длилась 21 год. 20 [31] октября Сенат преподнёс Петру Первому титул «Императора Петра Великого, Отца Отечества». Пётр официально стал Императором, а Россия – Империей.</t>
+  </si>
+  <si>
+    <t>25 апреля [7 мая] 1719 года умер сын Петра Первого, Пётр Петрович, который согласно манифесту 1718 года считался наследником престола. Детей мужского пола у царя не осталось. Это сыграет важную роль в последующих событиях.</t>
+  </si>
+  <si>
+    <t>12 [23] октября 1715 года у Алексея Петровича родился сын, названный Петром. Мать ребёнка, Шарлотта-Кристина-София, скончалась через несколько дней от послеродовой горячки. А через 2 недели, 27 октября [7 ноября] и у царя Петра Первого родился сын, которого тоже назвали Петром. В этой ситуации царевич Алексей становился ненужным отцу в качестве наследника, особенно потому, что имел с ним большие разногласия. Понимая опасность ситуации, царевич решил отказаться от престола. Но Петру этого было мало: царь стал принуждать сына постричься в монахи. На следующий год Алексей Петрович бежал за границу.</t>
+  </si>
+  <si>
+    <t>19 февраля [1 марта] 1712 года в небольшой церкви Меншиковского дворца состоялась официальная церемония бракосочетания Петра Первого и Екатерины Первой. Дочери Анна и Елизавета, родившиеся до официального брака, теперь считались «привенчанными», хотя их изначальная «незаконорожденность» часто им припоминалась впоследствии. А Екатерина Алексеевна официально стала русской царицей, хотя её «зазорное» происхождение бывшей портомои тоже бросало тень на её высочайший статус.</t>
+  </si>
+  <si>
+    <t>14 [25] октября 1711 года Пётр I женил своего сына, царевича Алексея, на принцессе Брауншвейг-Вольфенбюттельской Шарлотте-Кристине-Софии. Невеста не переходила в православие, а оставалась лютеранкой. Этот брак имел важное династическое значение: Шарлотта-Кристина-София была сестрой Елизаветы-Кристины Брауншвейг-Вольфтенбюттельской, которая была женой Карла Габбсбурга, императора Священно-Римской Империи (их дочерью была императрица Мария-Терезия, а внучкой – королева Мария-Антуанетта). Таким образом, Романовы становились родственниками одной из самых могущественных династий того времени – династии Габсбургов.</t>
+  </si>
+  <si>
+    <t>3 [14] июля 1704 года умерла бывшая царевна Софья. С момента последнего Стрелецкого бунта она прожила 6 лет в монастыре и так и не вышла на свободу. Софья Алексеевна была похоронена там же, в Смоленском Соборе Новодевичьего монастыря.</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>16 [27] мая 1703 года царь Пётр I заложил первый камень в постройку Петропавловской крепости на Заячьем острове. Эта дата считается днём основания города Санкт-Петербурга, будущей столицы Российском Империи.</t>
+  </si>
+  <si>
+    <t>С самых первых лет своего правления, Пётр I принялся во всём уничтожать пережитки прошлого. Символом старины для него была даже жена, Евдокия Фёдоровна Лопухина. Чувства между супругами сохранялись около двух лет после брака. Но потом Пётр стал изменять жене, а вернувшись из Великого Посольства, решил окончательно порвать с ней отношения. Таким образом, в июне 1699 года Евдокия Лопухина была насильно пострижена в монахини с именем Елена в Покровском монастыре в Суздале (куда она была сослана за девять месяцев до этого). Их малолетний сын Алексей Петрович остался в селе Преображенском на попечении у своей тётки Натальи Алексеевны, сестры Петра.</t>
+  </si>
+  <si>
+    <t>29 января [8 февраля] 1696 года умер царь Иоанн V. Пётр I стал единовластным правителем. Жена Ивана Алексеевича, Прасковья Фёдоровна, осталась с детьми жить в подмосковном Измайлове. Она сохранила хорошие отношения с Петром и с остальными родственниками.</t>
+  </si>
+  <si>
+    <t>[8, 24]</t>
+  </si>
+  <si>
+    <t>30 мая [9 июня] 1672 у царя Алексея Михайловича родился очередной сын, названный Петром. Наличие старших братьев не предполагало, что Пётр когда-нибудь станет правителем России. Однако судьба распорядилась иначе: Петру I было суждено править страной несколько десятилетий, и в результате его правления Россия стала Империей, а сам Пётр получил титул «Великий». Не последнюю роль в таком успешном пути к власти сыграло его здоровье: мальчик, в отличие от своих братьев, рос живым и активным. Он был любознательным, как отец Алексей Михайлович и самоуверенным, как сестра Софья – эти качества характеризовали впоследствии Петра как самодержца.</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>27 августа [6 сентября] 1666 у царя Алексея Михайловича родился сын, названный Иваном (Иоанн V). Он был слаб физически: болел цингой и падучей, имел проблемы со зрением и дефекты речи. Однако вопреки расхожему мнению, слабоумным он не был. В будущем, из-за своего плохого здоровья, Иван Алексеевич почти не участвовал в управлении государством, оказавшись заложником политических интриг.</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>6 [16] октября 1649 года, спустя почти год после рождения, умер Дмитрий Алексеевич, первый сын царя Алексея Михайловича. Похоронен в Архангельском соборе Московского Кремля.</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[8, 7]</t>
+  </si>
+  <si>
+    <t>Царь Михаил Фёдорович умер в ночь на 12 [22] июля 1645 года, т.е. в свой День рождения, когда ему должно было исполниться 49 лет. Почти через месяц, 18 [28] августа умерла и его жена, Евдокия Лукьяновна Стрешнева. Престол перешёл к старшему сыну Михаила Фёдоровича, Алексею Михайловичу, который 28 сентября [8 октября] был венчан на царство в Успенском соборе Московского Кремля.</t>
+  </si>
+  <si>
+    <t>[2, 4, 8]</t>
+  </si>
+  <si>
+    <t>5 [15] февраля 1626 года царь Михаил Фёдорович женился во второй раз – его невестой стала дочь дворянина Евдокия Лукьяновна Стрешнева. С ней царь прожил в браке почти 20 лет, и за это время у них родилось десять детей. Несмотря на неудачный первый брак и смерть первой жены, в итоге семейная жизнь Михаила Фёдоровича оказалась счастливой.</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>1 [11] декабря 1618 года заключено Деулинское перемирие с Речью Посполитой – завершилась многолетняя война с Польшей. Через полгода отец Михаила Фёдоровича, Патриарх Филарет (в миру Фёдор Никитич Романов), смог вернуться домой из польского плена. Впоследствии отец царя принимал активное участие в управлении государством.</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>21 февраля [3 марта] 1613 года Земский Собор избрал на царство 16-летнего Михаила Фёдоровича Романова, сына боярина Фёдора Никитича Романова. Михаил Фёдорович приходился двоюродным племянником Фёдору Иоанновичу, последнему царю из династии Рюриковичей. 11 [21] июля Михаил был венчан на царство в Успенском cоборе Московского Кремля. Началась история новой династии.</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>22 апреля [2 мая] у Михаила Фёдоровича и Евдокии Лукьяновны родился первенец – дочка Ирина.</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>9 [19] марта 1629 года у Михаила Фёдоровича и Евдокии Лукьяновны родился мальчик, названный Алексеем, будущий царь Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>26 января [5 февраля] 1631 года умерла мать царя Михаила Фёдоровича, Ксения Шестова.</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Добро пожаловать на сайт интерактивной родословной династии Романовых!</t>
+  </si>
+  <si>
+    <t>Воцарение Михаила Фёдоровича Романова</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович.</t>
+  </si>
+  <si>
+    <t>Из польского плена вернулся Патриарх Филарет, отце Михаила Фёдоровича.</t>
+  </si>
+  <si>
+    <t>Михаил Фёдорович женился на Марии Долгорукой.</t>
+  </si>
+  <si>
+    <t>18 [28] сентября 1624 года состоялась свадьба царя Михаила Фёдоровича и княжны Марии Владимировны Долгорукой. Но уже на следующий день после свадьбы Мария Владимировна занемогла и, проболев три с лишним месяца, умерла.</t>
+  </si>
+  <si>
+    <t>Михаил Фёдорович женился на Евдокии Стрешневой.</t>
+  </si>
+  <si>
+    <t>У Михаила Фёдоровича родилась дочь Ирина Михайловна.</t>
+  </si>
+  <si>
+    <t>У Михаила Фёдоровича родился сын Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>[2, 8]</t>
+  </si>
+  <si>
+    <t>Умерла Ксения Шестова.</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович, у него 2 ребёнка.</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович, у него 3 ребёнка. Наследник - Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>Умер Фёдор Никитич Романов.</t>
+  </si>
+  <si>
+    <t>1 [11] октября 1633 умер отец царя Михаила Фёдоровича, Патриарх Филарет (Фёдор Никитич Романов).</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович, у него 5 детей. Наследник - Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович, у него 4 ребёнка. Наследник - Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>Умер царь Михаил Фёдорович и его жена Евдокия Стрешнева. На престол взошёл Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович.</t>
+  </si>
+  <si>
+    <t>Правитель - Михаил Фёдорович, детей у него нет.</t>
+  </si>
+  <si>
+    <t>Алексей Михайлович женился на Марии Милославской.</t>
+  </si>
+  <si>
+    <t>Умер первый сын Алексея Михайловича, Дмитрий Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 1 ребёнок.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 2 ребёнка.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 4 ребёнка. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 5 детей. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 6 детей. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 8 детей. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 9 детей. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>У Алексея Михайловича родился сын Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>У Алексея Михайловича родился сын Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>5 [15] февраля 1654 года у царя Алексея Михайловича родился сын, названный также Алексеем. До момента своей смерти в 1670 году он считался наследником престола.</t>
+  </si>
+  <si>
+    <t>[8, 20]</t>
+  </si>
+  <si>
+    <t>У Алексея Михайловича родилась дочь Софья Алексеевна.</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>30 мая [9 июня] у царя Алексея Михайловича родился ещё один сын, названный Фёдором. Несмотря на своё слабое здоровье, Фёдор Алексеевич на какое-то время стал правителем страны: с 1676 года до момента своей смерти в 1682 году.</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>У Алексея Михайловича родился сын Иван Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 10 детей. Наследник - Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>Умерла Мария Милославская.</t>
+  </si>
+  <si>
+    <t>3 [13] марта 1669 года умерла царица Мария Ильинична Милославская. В живых после неё осталось 9 детей. В дальнейшем, при династических спорах, дети Марии Ильиничны составляли клан «Милославских».</t>
+  </si>
+  <si>
+    <t>Умер Алексей Алексеевич.</t>
+  </si>
+  <si>
+    <t>17 [27] января 1670 года в 15-летнем возрасте внезапно умер Алексей Алексеевич, сын царя Алексея Михайловича и наследник престола. Наследником стал следующий по старшинству сын царя, Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>Алексей Михайлович женился на Наталии Нарышкиной.</t>
+  </si>
+  <si>
+    <t>[8, 9]</t>
+  </si>
+  <si>
+    <t>22 января [1 февраля] 1671 года Алексей Михайлович женился во второй раз – его невестой стала Наталия Кирилловна Нарышкина, приближённая боярина А.С. Матвеева. От неё у царя родилось 3 ребёнка, в том числе и будущий император Пётр Великий.</t>
+  </si>
+  <si>
+    <t>У Алексея Михайловича родился сын Пётр Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 10 детей. Наследник - Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Алексей Михайлович, у него 11 детей. Наследник - Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>Умер Алексей Михайлович, на престол взошёл Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>29 января [8 февраля] 1676 года умер царь Алексей Михайлович. 18 [28] июня 1676 года в Успенской соборе Московского Кремля прошла церемония венчания на царство Фёдора Алексеевича, старшего сына Алексея Михайловича.&lt;p&gt;Воцарение Фёдора выдвинуло на первый план его родственников по матери – семейство Милославских. Нарышкины попали в опалу: царица Наталья Кирилловна с детьми была удалена от двора, а её братья отправлены в ссылку. Однако впоследствии царь освободился из-под влияния Милославских и мягчился в своём отношении к сводным родственникам.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Правитель - Фёдор Алексеевич.</t>
+  </si>
+  <si>
+    <t>[24, 26]</t>
+  </si>
+  <si>
+    <t>[26, 38]</t>
+  </si>
+  <si>
+    <t>[9, 22, 24, 27, 30, 33]</t>
+  </si>
+  <si>
+    <t>[22, 30, 31]</t>
+  </si>
+  <si>
+    <t>[22, 30, 33, 36]</t>
+  </si>
+  <si>
+    <t>[30, 31, 33]</t>
+  </si>
+  <si>
+    <t>[22, 33]</t>
+  </si>
+  <si>
+    <t>[33, 36, 34, 47]</t>
+  </si>
+  <si>
+    <t>[33, 35]</t>
+  </si>
+  <si>
+    <t>[33, 43, 44]</t>
+  </si>
+  <si>
+    <t>[47, 48]</t>
+  </si>
+  <si>
+    <t>[33, 35, 47, 48, 58, 64]</t>
+  </si>
+  <si>
+    <t>[41, 43]</t>
+  </si>
+  <si>
+    <t>[33, 47]</t>
+  </si>
+  <si>
+    <t>[33, 58]</t>
+  </si>
+  <si>
+    <t>[53, 54]</t>
+  </si>
+  <si>
+    <t>[35, 54]</t>
+  </si>
+  <si>
+    <t>[35, 53, 55, 64]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[41, 42, 45, 55, 64]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[41, 43, 61]</t>
+  </si>
+  <si>
+    <t>[61, 62]</t>
+  </si>
+  <si>
+    <t>[42, 55, 61, 67]</t>
+  </si>
+  <si>
+    <t>[55, 61, 62]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[54, 55, 65, 66]</t>
+  </si>
+  <si>
+    <t>[65, 66]</t>
+  </si>
+  <si>
+    <t>[61, 71]</t>
+  </si>
+  <si>
+    <t>[66, 73]</t>
+  </si>
+  <si>
+    <t>[55, 65]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[73, 74]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[73, 75]</t>
+  </si>
+  <si>
+    <t>[66, 73, 77]</t>
+  </si>
+  <si>
+    <t>[66, 73, 78]</t>
+  </si>
+  <si>
+    <t>[66, 68, 69, 70, 71]</t>
+  </si>
+  <si>
+    <t>[76, 77]</t>
+  </si>
+  <si>
+    <t>[86, 87]</t>
+  </si>
+  <si>
+    <t>[65, 66, 73, 88]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[80, 81, 82, 83]</t>
   </si>
   <si>
     <t>[66, 73, 76]</t>
   </si>
   <si>
-    <t>Всё своё недолгое правление император Павел I боялся заговоров. Тем не менее, он не смог ничего предотвратить: в ночь с 11 на 12 [23 на 24] марта 1801 Павел Петрович был убит в собственной спальне (убийцы ударили его табакеркой в висок и затем задушили шарфом). Во главе заговорщиков стояли князь П.А. Зубов и граф Л.Л. Беннигсен. Сын Павла Александр был посвящён в планы убийц, и до конца своих дней он корил себя за то, что косвенно поучаствовал в убийстве отца. 12 [24] марта был издан манифест о восшествии на престол Александра I, в котором он объявлял, что император Павел I скончался от апоплексического удара, и что Александр будет управлять «Богом врученным народом по законам и по сердцу своей великой бабки», т.е. по заветам Екатерины II. Воцарение Александра в результате убийства Павла было последней насильственной передачей власти вплоть до революции 1917 года. После Александра Павловича престол передался его брату Николаю, а от него по нисходящей линии – всё, как было написано в акте Павла Первого о престолонаследии.</t>
-  </si>
-  <si>
-    <t>12 [23] октября 1799 года дочь Павла I Елена вышла замуж за Фридриха-Людвига, наследного принца Мекленбург-Шверинского. А через неделю, 19 [30] октября 1799, другая дочь Павла Александра вышла замуж за Иосифа-Антона, эрцгерцога Австрийского и палатина Венгерского. Оба брака продлились недолго из-за скорых смертей Великих княжон: 4 [16] марта 1801 года умерла Александра Павловна, а 12 [24] сентября 1803 года умерла Елена Павловна.</t>
-  </si>
-  <si>
-    <t>Свадьба Елены Павловны и Фридриха-Людвига. Свадьба Александры Павловны и Иосифа-Антона.</t>
-  </si>
-  <si>
-    <t>[80, 81, 82, 83]</t>
-  </si>
-  <si>
-    <t>Коронация Павла I. Новый указ о престолонаследии.</t>
-  </si>
-  <si>
-    <t>5 [16] апреля 1797 года, на Пасху, состоялась коронация Павла I в Успенском соборе Московского Кремля. В этот же день вышел новый акт о престолонаследии. Согласно этому документу, устанавливался чёткий порядок наследования престола: по прямой мужской линии от отца к старшему сыну и так до конца ветви, потом наследовала вторая ветвь и так далее. Таким образом, Павел Первый положил конец Эпохи дворцовых переворотов, в ходе которой к власти приходили личности, которые мало имели на это прав (в том числе, и его мать Екатерина Вторая).</t>
-  </si>
-  <si>
-    <t>[73]</t>
-  </si>
-  <si>
-    <t>Рождение Николая Павловича. Смерть Екатерины II. Воцарение Павла I.</t>
-  </si>
-  <si>
-    <t>25 июня [6 июля] 1796 года у Павла Петровича и Марии Фёдоровны родился третий сын Николай, будущий император Николай I. Таким образом, Екатерина II застала рождение трёх внуков-мальчиков, двое из которых впоследствии стали императорами. Согласно слухам, незадолго до своей смерти императрица подумывала передать престол внуку Александру в обход сына Павла. Но этим планам не суждено было сбыться – 6 [17] ноября 1796 императрица Екатерина Великая умерла от инсульта. Её правление длилось 34 года, и всё это время своего часа ждал законный наследник, Павел Первый. Наконец, его время пришло. Сразу же по восшествии на престол Павел Первый решил почтить память отца, императора Петра III, который за полгода своего царствования так и не успел короноваться. В декабре 1796 года состоялась необычная церемония: останки Петра Фёдоровича были извлечены из Благовещенской церкви Александро-Невской Лавры, где он был похоронен, а затем Павел наложил на них императорскую корону. Затем траурная процессия с телом Петра III прошла от Александро-Невской Лавры до Зимнего дворца, причём императорские регалии несли убийцы Петра, Алексей Орлов и Фёдор Барятинский. Оттуда уже два гроба, Петра III и Екатерины II отправились в Петропавловский собор (усыпальницу Романовых, начиная с Петра I), где и были захоронены.</t>
-  </si>
-  <si>
-    <t>[65, 66, 73, 88]</t>
-  </si>
-  <si>
-    <t>Рождение Анны Павловны. Смерть Ольги Павловны.</t>
-  </si>
-  <si>
-    <t>7 [18] января 1795 года у Павла Петровича и Марии Фёдоровны родилась последняя дочь, названная Анной. А через неделю, 15 [26] января 1795 года в двухлетнем возрасте умерла их другая дочь, Ольга. Она была единственным ребёнком Павла I, который скончался в младенчестве.</t>
-  </si>
-  <si>
-    <t>[86, 87]</t>
-  </si>
-  <si>
-    <t>Свадьба Александра Павловича и Елизаветы Алексеевны (Луиза-Мария-Августа)</t>
-  </si>
-  <si>
-    <t>28 сентября [9 октября] 1793 года Великий князь Александр Павлович женился на баденской принцессе Луизе-Марии-Августе(до этого она приняла православие с именем Елизавета Алексеевна). Александру на момент свадьбы было всего 15 лет, а его супруге 14. В браке детей у них не было, поэтому после Александра престол перешёл к его брату Николаю (Константин отрёкся).</t>
-  </si>
-  <si>
-    <t>[76, 77]</t>
-  </si>
-  <si>
-    <t>Освобождение и переезд детей Анны Леопольдовны.</t>
-  </si>
-  <si>
-    <t>В начале 1780 года императрица Екатерина II решила отправить в Данию всех четырёх оставшихся в живых детей Анны Леопольдовны и Антона-Ульриха, Екатерину, Елизавету, Петра и Алексея, которые всё это время находились в заточении. Летом 1780 года они впервые вышли за пределы своей тюрьмы в Холмогорах. 30 июня [11 июля] началось их плавание в датский город Хортенс, к их тётке королеве Юлиане-Марии. Прошло больше двух месяцев, прежде чем семейство достигло пункта назначения. Однако в чужой обстановке им жилось очень плохо. «Что мне было в тысячу раз лючше было жить в Холмогорах, нежели в Горсенсе» – писала старшая сестра Екатерина Антоновна. Впоследствии «Антоновичи» стали один за одним умирать. Их не могли даже отпеть в православной церкви – их хоронили в лютеранской церкви по православному обряду.</t>
-  </si>
-  <si>
-    <t>[66, 68, 69, 70, 71]</t>
-  </si>
-  <si>
-    <t>Рождение Константина Павловича.</t>
-  </si>
-  <si>
-    <t>27 апреля [8 мая] 1779 года у Павла Петровича и Марии Фёдоровны родился второй сын, названный Константином (в честь императора Константина Великого). Он воспитывался вместе со своим старшим братом Александром, и императрица Екатерина II также возлагала большие надежды на своего внука: она мечтала, что Константин станет правителем новой воссозданной Византийской империи со столицей в Константинополе.</t>
-  </si>
-  <si>
-    <t>[66, 73, 78]</t>
-  </si>
-  <si>
-    <t>Рождение Александра Павловича.</t>
-  </si>
-  <si>
-    <t>12 [23] декабря 1777 года у Павла Петровича и Марии Фёдоровны родился сын, названный Александром. Екатерина II, подобно Елизавете Петровне, когда-то отнявшей у неё Павла, поступила так же по отношению к самому Павлу: она отняла маленького Александра у родителей и воспитывала его самостоятельно. В итоге императрица воспитала ребёнка «под себя», и даже хотела объявить любимого внука наследником в обход нелюбимого сына. Однако этим планам не суждено было сбыться: Александр был объявлен наследником только по восшествии на престол Павла Первого.</t>
-  </si>
-  <si>
-    <t>Смерть Наталии Алексеевны. Свадьба Павла I и Марии Фёдоровны (София-Доротея-Августа-Луиза)</t>
-  </si>
-  <si>
-    <t>15 [26] апреля 1776 года при неудачных родах умерла жена Павла Петровича, Наталия Алексеевна. Отношения у супругов были плохими, так что Павел даже не присутствовал на похоронах. Меньше, чем через полгода состоялась новая свадьба: 26 сентября [7 октября] 1776 года Великий князь Павел Петрович женился на принцесса Вюртенбергской, Софии-Доротее-Августе-Луизе (до этого она приняла православие с именем Мария Фёдоровна). Она была племянницей Фридриха Великого, короля Пруссии. Правад она была помолвлена с Лювигом Гессен-Дармштадтским, братом Натальи Алексеевны, так что с ним пришлось договариваться деньгами. Новый брак сложился удачно – у Павла Петровича и Марии Фёдоровны было 10 детей.</t>
-  </si>
-  <si>
-    <t>[73, 75]</t>
-  </si>
-  <si>
-    <t>Казнь Емельяна Пугачёва.</t>
-  </si>
-  <si>
-    <t>10 [21] января 1775 года на Болотной площади в Москве был казнён Емельян Пугачёв. Он выдал себя за покойного императора Петра III и возглавил восстание казаков, которое в 1773-1774 годах охватило всё Поволжье. Это был самый «успешный» самозванец, однако до него было ещё 7 таких же «лже-Петров». Да и Петром Третьим не ограничивались самозванства: авантюристы выдавали себя за Ивана Алексеевича, Алексея Петровича и других. Были и «придуманные личности»: например, знаменитая княжна Тараканова, которая выдавала себя за дочь Елизаветы Петровны.</t>
-  </si>
-  <si>
-    <t>[65]</t>
-  </si>
-  <si>
-    <t>Тайный брак Екатерины II и Григория Потёмкина.</t>
-  </si>
-  <si>
-    <t>8 [19] июня 1774 года, вероятно, состоялся тайный брак Екатерины Второй и её фаворита, Григория Потёмкина. Через год, в 13 [24] июля 1775 у них родилась дочь Елизавета, получившая фамилию Тёмкина. Но так как перечисленные события официально не были объявлены, то можно только предполагать достоверность этих сведений.</t>
-  </si>
-  <si>
-    <t>[66]</t>
-  </si>
-  <si>
-    <t>Свадьба Павла I и Наталии Алексеевны (Августа-Вильгельмина-Луиза)</t>
-  </si>
-  <si>
-    <t>29 сентября [10 октября] 1773 года Великий князь Павел Петрович женился на принцессе Августе-Вильгельмине-Луизе Гессен-Дармштадтской. С неё началась традиция гессенских принцесс в Российском Императорском Доме; в XIX веке трое родственниц Вильгельмины вышли замуж за Романовых. За полтора месяца до свадьбы, 14 [25] августа, она приняла православие с именем Натальи Алексеевны.</t>
-  </si>
-  <si>
-    <t>[73, 74]</t>
-  </si>
-  <si>
-    <t>Прививка от оспы Екатерины II и Павла I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В 1768 году императрица Екатерина Вторая первой в России сделала прививку от оспы. Её вместе с сыном Павлом прививал английский врач Т. Димсдейл. Когда французский король Людовик XV умер от оспы, Екатерина говорила: «По-моему, стыдно королю Франции в XVIII столетии умереть от оспы, это варварство». </t>
-  </si>
-  <si>
-    <t>[66, 73]</t>
-  </si>
-  <si>
-    <t>Смерть Иоанна VI Антоновича.</t>
-  </si>
-  <si>
-    <t>Всё правление Елизаветы Петровны в заключении подрастал бывший император Иоанн VI Антонович. После дворцового переворота 1740 года, годовалый император вместе с родителями был арестован. Их перевозили из одной тюрьмы в другую: из Петербурга в Ригу, оттуда в Динамюнде, потом в Раненбург. В конце концов мальчика разлучили с родителями и отвезли в Холмогоры. Позже туда привезли и всю остальную семью, но они жили отдельно и не знали ничего друг о друге. В 1756 году Иоанна Антоновича тайно перевезли в Шлиссельбургскую крепость, где подростка содержали в особом каземате с жёсткими условиями. И всё же узник не был обычным заключённым – это всё-таки был бывший император. Он в разное время виделся и с Елизаветой Петровной, и с Петром III, и с Екатериной II. Последняя подумывала о том, чтобы постричь Ивана в монахи и отправить в какой-нибудь глухой монастырь. Но 5 [16] июля 1764 года подпоручик В.Я. Мирович решился освободить бывшего императора из заточения. При попытке освобождения Иоанн Антонович был заколот шпагами. Так Иоанн VI стал жертвой Эпохи дворцовых переворотов: получив власть и лишившись её во младенчестве, оставшиеся 24 года он расплачивался за это, находясь в заключении и убитый во время попытки освобождения. Бывший император был тайно похоронен в Шлиссельбургской крепости, могила его неизвестна.</t>
-  </si>
-  <si>
-    <t>[67]</t>
-  </si>
-  <si>
-    <t>Гвардейский переворот. Приход к власти Екатерины II. Смерть Петра III.</t>
-  </si>
-  <si>
-    <t>За полгода царствования, император Пётр III сумел настроить против себя практически всех: армию, дворян, духовенство… Его жена, Екатерина II, чувствуя благоприятность ситуации, решилась на дворцовый переворот. 28 июня [9 июля] 1762 года с помощью своих фаворитов, братьев Алексея и Григория Орловых, Екатерина поехала из Петергофа в Петербург, где ей присягнула гвардия. Пётр III, будучи в Ораниенбауме, рванулся в Петергоф, а оттуда в Кронштадт, но туда его не пустили войска, принявшие Екатерину новой императрицей. Тогда Пётр Фёдорович вернулся обратно в Ораниенбаум и на следующий день отправил письмо супруге, в котором отрёкся от престола. Свергнутый император был арестован и вместе со своей фавориткой графиней Елизаветой Воронцовой отправлен в Петергоф. Там их разлучили и Петра отправили в Ропшу, откуда планировали перевезти в Шлиссельбург. Но где-то между 3 и 6 [14 и 17] июля Пётр III был убит братьями Орловыми и их соратниками. Официально было объявлено, что бывший император скончался от «гемороидальных колик». А Екатерина Вторая 22 сентября [3 октября] 1762 года была венчана на царство в Успенском соборе Московского Кремля. Бывшая немецкая принцесса София-Фредерика-Августа стала самодержавной правительницей Российской Империи, вошедшей в историю как Екатерина Великая.</t>
-  </si>
-  <si>
-    <t>[65, 66]</t>
-  </si>
-  <si>
-    <t>Смерть Елизаветы Петровны. Воцарение Петра III.</t>
-  </si>
-  <si>
-    <t>25 декабря 1761 [5 января 1762] года, в канун Рождества, умерла императрица Елизавета Петровна. Императором был провозглашён её племянник Пётр III. Коронацию Пётр Фёдорович решил отложить, пока не будут решены военные вопросы. Но короноваться (при жизни) Пётр так и не успел.</t>
-  </si>
-  <si>
-    <t>[55, 65]</t>
-  </si>
-  <si>
-    <t>Рождение Павла I.</t>
-  </si>
-  <si>
-    <t>20 сентября [1 октября] 1754 года у Екатерины II и Петра III родился долгожданный сын, названный Павлом Петровичем (Павел I). Наследника сразу отлучили от родителей. Екатерина оказалась больше не нужна ни Елизавете (которая занялась воспитанием ребёнка), ни Петру (который завёл себе любовницу). Но она не унывала и посвятила себя самообразованию и изучению российской культуры. Благодаря этому, немецкая принцесса впоследствии станет по-настоящему русской императрицей.</t>
-  </si>
-  <si>
-    <t>Рождение Алексея Антоновича. Смерть Анны Леопольдовны.</t>
-  </si>
-  <si>
-    <t>27 февраля [10 марта] 1746 года у Анны Леопольдовны и Антона-Ульриха родился сын Алексей. Это был пятый ребёнок в семье бывших правителей страны: до этого после Иоанна Антоновича по очереди родились Екатерина, Елизавета и Пётр. Все эти дети рождались, пока семья была в заточении. Появление каждого ребёнка раздражало Елизавету Петровну: рапорт о рождении Алексея императрица приказала разодрать. Через несколько дней после рождения сына, 7 [18] марта Анна Леопольдовна умерла от послеродовой горячки. Бывшая императрица была похоронена в Александро-Невской Лавре.</t>
-  </si>
-  <si>
-    <t>[61, 71]</t>
-  </si>
-  <si>
-    <t>Свадьба Петра III и Екатерины II.</t>
-  </si>
-  <si>
-    <t>21 августа [1 сентября] 1745 года состоялась свадьба Петра III Фёдоровича и Екатерины II Алексеевны. Их брак не был удачным – супруги не любили друг друга. Они были вместе только для того, чтобы родить наследника. Этого долго не получалось сделать, и только спустя 9 лет после свадьбы Екатерина родила сына Павла. Когда это произошло, то супруги вообще стали не нужны друг другу: они жили отдельно и вели свою личную жизнь. Так, у Петра была своя фаворитка – Елизавета Воронцова. А Екатерина даже рожала детей от своих фаворитов: в 1757 году она родила дочь Анну от Станислава Понятовского, а в 1762 году – сына от Григория Орлова (но эта информация, естественно, была неофициальная, а значит со 100-процентной вероятностью об этих фактах говорить нельзя). Позже Екатерина Вторая совершит дворцовый переворот, арестует Петра и завладеет престолом.</t>
-  </si>
-  <si>
-    <t>Приезд в Россию Екатерины II (София-Фредерика-Августа)</t>
-  </si>
-  <si>
-    <t>Императрица Елизавета Петровна подыскивала невесту своему племяннику, наследнику престола Петру III. Выбор пал на юную немецкую принцессу из города Шеттина, которую звали София-Фредерика-Августа. Это было не случайно: Елизавета всячески покровительствовала гольштинской династии, ведь её первый возлюбленный, герцог Карл-Август Гольштинский, был представителем именно  этой династии. Он был братом Карла-Фридриха (мужа сестры Елизаветы), и как раз приходился двоюродным братом мамы юной Софии. Таким образом, получалось, что приглашённая принцесса являлась троюродной сестрой Петра III. Это была идеальная кандидатура: она была протестанткой, что облегчало переход в православие, а также «из знатного, но столь малого рода, дабы ни связи, ни свита принцессы не возбуждали особенного внимания или зависти здешнего народа». В начале 1744 года София-Фредерика-Августа вместе с матерью Иоганной-Елизаветой прибыла в Россию. 28 июня [9 июля] 1744 она была крещена в православие в Успенском соборе Московского Кремля с именем Екатерина Алексеевна. На следующий день Екатерина была обручена с Петром III.</t>
-  </si>
-  <si>
-    <t>[54, 55, 65, 66]</t>
-  </si>
-  <si>
-    <t>Тайное венчание Елизаветы Петровны и Алексея Разумовского.</t>
-  </si>
-  <si>
-    <t>У Елизаветы Петровны было много женихов, но ни с кем из них так и не было заключено брака. Хотя, согласно слухам, сразу по восшествии на престол, Императрица обвенчалась со своим фаворитом, графом Алексеем Разумовским. Возможно, у них даже были дети. Однако документального подтверждения ни того, ни другого факта не сохранилось.</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>Приезд в Россию Петра III (Карл-Петер-Ульрих)</t>
-  </si>
-  <si>
-    <t>Пока российский престол в течение почти 20 лет переходил из рук в руки, в Германии подрастал внук Петра I, Карл-Петер-Ульрих, герцог Гольштейн-Готторпский. Его родители Анна Петровна и Карл-Фридрих рано умерли, и маленький сирота один остался правителем небольшого государства на севере Германии. Но к 1742 году он был единственным возможным наследником престола, поэтому 5 [16] февраля герцог, по приказу Елизаветы Петровны вернулся в Россию. Карл-Петер-Ульрих был официально объявлен наследником престола и крещён в православие с именем Пётр Фёдорович (Пётр III). Поэтому следующие Романовы, потомки Петра III, также считаются представителями Гольштейн-Готторпской династии.</t>
-  </si>
-  <si>
-    <t>Гвардейский переворот. Воцарение Елизаветы Петровны.</t>
-  </si>
-  <si>
-    <t>В ночь на 25 ноября [6 декабря] 1741 года Елизавета Петровна явилась в казармы Преображенского полка и подняла солдат на мятеж. Гвардейцы считали Елизавету «своей»,- отсвет величия Петра ервого падал на неё. Для пущего эффекта она надела кирасу и накинула гвардейскую форму. Во главе с Елизаветой Петровной гвардейцы двинулись к Зимнему дворцу. Ни Анна Леопольдовна, ни Антон-Ульрих не оказали никакого сопротивления. Они были арестованы, и уже на следующий день был опубликован манифест о восшествии на престол императрицы Елизаветы Петровны. Её венчание на царство состоялась через полгода, 25 апреля [6 мая] 1742 в Успенском соборе Московского Кремля, и Елизавета Петровна сама надела на свою голову императорскую корону.</t>
-  </si>
-  <si>
-    <t>[55, 61, 62]</t>
-  </si>
-  <si>
-    <t>Рождение Иоанна Антоновича. Смерть Анны Иоанновны. Воцарение Анны Леопольдовны вместе с сыном.</t>
-  </si>
-  <si>
-    <t>12 [23] августа 1740 года у Анны Леопольдовны и Антона-Ульриха родился сын, названный Иоанном в честь своего прадеда, Иоанна Алексеевича. Официально он именовался Иоанном III (так как считались только цари, начиная с Ивана Грозного), но в историю вошёл как Иоанн VI Антонович. Анна Иоанновна назначила младенца наследником, а регентом до его совершеннолетия должен был стать её фаворит герцог Бирон. 17 [28] октября 1740 года императрица умерла, власть была передана согласно завещанию: императором стал Иоанн Антонович, фактически во главе государства встал Бирон. Но через 3 недели, в ночь на 9 [20] ноября 1740 Бирона сверг его соратник фельдмаршал Миних. Он собрал гвардию у Зимнего дворца, и войска принесла присягу матери Иоанна VI, Анне Леопольдовне. Так началось недолгое правление Анны Леопольдовны и маленького императора, которому не было и года. А всё это время рядом со двором находилась Елизавета Петровна, последняя из оставшихся в живых детей Петра Великого. Она ещё при Анне Иоанновне засматривалась на престол, а теперь, когда у власть претерпевала очередной кризис, Елизавета поняла, что надо действовать. Анне было известно о готовящемся заговоре, но она не воспринимала слухи всерьёз.</t>
-  </si>
-  <si>
-    <t>Свадьба Анны Леопольдовны и Антона-Ульриха.</t>
-  </si>
-  <si>
-    <t>3 [14] июля 1739 года Анна Леопольдовна вышла замуж за принца Антона-Ульриха, племянника Шарлотты-Кристины-Софии (жены царевича Алексея Петровича). Последующие события впишут их имена в историю.</t>
-  </si>
-  <si>
-    <t>[61, 62]</t>
-  </si>
-  <si>
-    <t>Крещение Анны Леопольдовны. Смерть Екатерины Иоанновны.</t>
-  </si>
-  <si>
-    <t>В 1722 году брак Екатерины Иоанновны и Карла-Леопольда окончательно разрушился: Екатерина вместе с дочерью уехала в Россию, а Карл-Леопольд остался бороться за своё герцогство. И только спустя 11 лет, 12 [23] мая 1733 года Елизавету-Екатерину-Христину наконец крестили в православие. При крещении ей дали имя её тётки императрицы Анны Иоанновны. А через месяц, 14 [25] июня, умерла и сама Екатерина Иоанновна. Карл-Леопольд оставался в Мекленбург-Шверинском герцогстве, так что Анна Леопольдовна воспитывалась одна при русском дворе.</t>
-  </si>
-  <si>
-    <t>Переезд двора обратно в Санкт-Петербург.</t>
-  </si>
-  <si>
-    <t>В Москве Анне Иоанновне было неуютно, поэтому в 1732 году двор императрицы переезжает обратно в Санкт-Петербург. Город вновь стал полноправной столицей Российской Империи.</t>
-  </si>
-  <si>
-    <t>Возвращение старого порядка престолонаследия «по желанию государя»</t>
-  </si>
-  <si>
-    <t>17 [28] декабря 1731 года Анна Иоанновна издала манифест «Об учинении присяги в верности наследнику Всероссийского престола, который от Ея Императорского Величества назначен будет». Этот манифест по смыслу повторял указ «О наследии престола» Петра Первого от 1722 года: императрица сама должна была решить, кому перейдёт престол после её смерти.</t>
-  </si>
-  <si>
-    <t>Смерть Петра II. Выбор наследника, создание «Кондиций», упразднение Верховного тайного совета. Воцарение Анны Иоанновны.</t>
-  </si>
-  <si>
-    <t>В самом начале января Пётр Второй простудился, а потом заболел оспой. В ночь на 19 [30] января 1730 14-летний император скончался. Знать, которая съехалась в Москву на свадьбу Петра и Екатерины, оказалась на похоронах жениха. В отличие от ближайших предшественников, Пётр Алексеевич был похоронен в Архангельском соборе Московского Кремля, старой усыпальнице российских государей. Снова начался процесс выбора наследника, который лёг на плечи Верховного тайного совета. Из тех Романовых, которые остались в живых, выбор был не велик. Анна Петровна к тому моменту уже умерла. Елизавету Петровну не рассматривали в качестве кандидата, так как о тестаменте Екатерины Первой вовсе забыли. При таком раскладе пришлось обратиться к соседней ветве «Иоанновичей» – детей брата Петра Иоанна V. Екатерина Иоанновна неудачно вышла замуж, родила дочь и вернулась в Россию, но она не была разведена. Это было оправданием тому, чтобы не звать её – хотя на самом деле, Веховный тайный Совет просто опасался Екатерину Иоанновну за её независимый нрав. Прасковья Иоанновна жила в морганатическом браке (хотя в том же году умер и её муж). Оставалась Анна Иоанновна, которая овдовела сразу же после брака и жила одна в далёкой Митаве, управляя Курляндским герцогством. Выбор был сделан в пользу Анны Иоанновны. Но прежде чем пригласить её управлять страной, члены Верховного тайного совета решили, что «надо б себе полегчить и воли бы себе прибавить» – то есть ограничить власть императрицы. Так были придуманы так называемые «Кондиции» – условия, выдвинутые Анне Иоанновне, ограничивающие её власть. Но против этого выступили чиновники, которые как раз в то время были все в Москве: они не хотели, чтобы над ними вместо одного монарха стояло ещё с десяток посторонних лиц. В итоге Анна просто разорвала бумагу с предложенными кондициями. Так провалилась попытка ввести в России ограниченную монархию: 4 [15] марта Верховный тайный совет был упразднён, а 28 апреля [9 мая] 1730 года Анна Иоанновна была венчана на царство в Успенском соборе Московского Кремля – она становилась полноправным самодержцем Российской Империи.</t>
-  </si>
-  <si>
-    <t>Обручение Петра II и Екатерины Долгорукой.</t>
-  </si>
-  <si>
-    <t>Пётр Второй, тесно общаясь с Иваном Долгоруким, влюбился в его сестру, 17-летнюю Екатерину Долгорукую. 30 ноября [11 декабря] 1729 года в Лефортовском дворце состоялось официальное обручение Петра и Екатерины. Свадьба была назначена на январь следующего года. Однако Петру так и не суждено было пожениться.</t>
-  </si>
-  <si>
-    <t>[64]</t>
-  </si>
-  <si>
-    <t>Переезд двора в Москву.</t>
-  </si>
-  <si>
-    <t>В этом же году двор императора переезжает из Санкт-Петербурга в Москву. Главной причиной было то, что в первой столице было попросту больше возможностей для охоты, а юный император проводил на охоте половину своего времени.</t>
-  </si>
-  <si>
-    <t>Смерть Екатерины I. Воцарение Петра II. Борьба за влияние.</t>
-  </si>
-  <si>
-    <t>6 [17] мая 1727 года умерла Екатерина Первая. Сразу после её смерти был зачитан тестамент императрицы – завещание, в котором Екатерина описала последующий порядок престолонаследия. Согласно этому тестаменту, власть передавалась внуку Петра I, Петру II. 11-летний Пётр Алексеевич объявлялся российским самодержцем, но реальная власть сосредотачивалась у регентского совета, в состав которого входили цесаревны Елизавета и Анна, муж Анны Карл-Фридрих, а также члены Верховного тайного совета. Тестамент регламентировал и дальнейший порядок: если Пётр умрёт бездетным, его наследницей становится цесаревна Анна и кто-либо из её детей, затем цесаревна Елизавета и кто-либо из её детей, а затем Великая княжна Наталья и кто-нибудь из её детей. Отдельным пунктом было прописано, что монархом может стать только представитель православной веры (например, муж Анны Карл-Фридрих не мог стать императором). Этим тестаментом напрямую нарушалось действие устава Петра Первого «О престолонаследии» от 1722 года, ведь в таком случае тестамент заранее решал за монархов, кому передаётся престол. Меншиков, зная, что престол перейдёт Петру Второму, поэтому ещё до смерти Екатерины договорился с ней, что наследник женится на дочери князя Марии Александровне Меншиковой. Александр Данилович начал «готовить себе почву» и не расставался с юным императором, но вскоре Пётр стал охладевать к своему наставнику. В какой-то момент А.Д. Меншиков заболел, и его отсутствием воспользовались Долгорукие, чтобы приблизиться к императору. Так, новым другом 11-летнего Петра стал 19-летний Иван Алексеевич Долгорукий. В итоге юного Петра Алексеевича настроили против Меншикова так, что свадьба с Марией была расторгнута, а Святлейший князь был арестован и вместе с семьёй отправлен в ссылку, где и умер в 1729 году.</t>
-  </si>
-  <si>
-    <t>[35, 53, 55, 64]</t>
-  </si>
-  <si>
-    <t>Учреждение Верховного Тайного Совета.</t>
-  </si>
-  <si>
-    <t>Екатерина Первая не обладала талантами государственного деятеля, поэтому реальная власть сосредоточилась в руках ближайшего соратника Петра Первого – Александра Меншикова. Он же стал главой введённого 8 [19] февраля 1726 года Верховного тайного совета. Это был высший совещательный орган при императрице, ведавший основными внутренними и внешними государственными делами. В первоначальный состав Совета, кроме А.Д. Меншикова, вошли: Ф.М. Апраксин, Г.И. Головкин, П.А. Толстой, Д.М. Голицын, А.И. Остерман, а также зять Екатерины Первой Карл-Фридрих. Впоследствии состав менялся: в итоге в Совете стало 9 членов и большинство составляли князья Голицыны и Долгорукие. Верховный тайный совет сыграл важную роль в последующих событиях.</t>
-  </si>
-  <si>
-    <t>[35, 54]</t>
-  </si>
-  <si>
-    <t>Смерть Петра I. Воцарение Екатерины I.</t>
-  </si>
-  <si>
-    <t>28 января [8 февраля] 1725 года умер император Пётр Великий. В 1724 году он назначил пременией свою супругу, Екатерину Первую. Однако незадолго до смерти, узнав об измене жены, Пётр отменил своё решение. Нового наследника Пётр Алексеевич не назначил. Это привело к тому, что наследника пришлось выбирать ограниченному кругу лиц придворной знати. Одни (Меншиков, Головкин и др.) были за супругу Петра Алексеевича Екатерину Алексеевну; вторые (Голицыны, Долгорукие и др.) выступали за передачу власти внуку Петра I, Петру II Алексеевичу. В итоге А.Д. Меншиковым была задействована вардия: преображенцы и семёновцы потребовали провозгласить императрицей Екатерину I. Так, бывшая «портомоя» стала самодержавной правительницей огромной империи. Подобные «выборы» с участием гвардии стали часто случаться в ближайшие десятилетия, так что последующий период был назван «Эпохой дворцовых переворотов».</t>
-  </si>
-  <si>
-    <t>[33, 35]</t>
-  </si>
-  <si>
-    <t>Обручение Анны Петровны и Карла-Фридриха.</t>
-  </si>
-  <si>
-    <t>24 ноября [5 декабря] 1724 года Анна Петровна, дочь Петра Первого, была обручена с Карлом-Фридрихом, герцогом Гольштейн-Готторпским. Карл-Фридрих был племянником шведского короля Карла XII, многолетнего противника Петра I в Северной войне. Таким образом, как и прочие династические браки детей Петра, союз Анны и Карла-Фридриха связывал Россию с европейскими правящими домами. В подписанном брачном контракте Анна за себя и своих потомков отказывалась от притязаний на российский престол. Но контракт содержал секретный артикул, согласно которому Пётр I имел право забрать кого-либо из их потомков в Россию и сделать его наследником. Этим воспользовалась Елизавета Петровна в 1742 году, пригласив в Санкт-Петербург своего племянника, сына Анны и Карла-Фридриха Карла-Петера-Ульриха (названного в честь обоих своих родственников: Карла XII и Петра I), который впоследствии стал императором Петром III.</t>
-  </si>
-  <si>
-    <t>[53, 54]</t>
-  </si>
-  <si>
-    <t>Указ о новом порядке престолонаследия.</t>
-  </si>
-  <si>
-    <t>5 [16] февраля Пётр Первый издал устав «О престолонаследии». Согласно этому документу, самодержец мог сам назначать преемника. Таким образом, отменялся традиционный порядок наследования престола от отца к сыну. Однако новый порядок ещё более запутал процедуру простолонаследия: сам Пётр успел выбрать преемника (точнее он менял своё мнение, но так и не определился), что во многом предопределило дальнейшие события, вошедшие в историю как Эпоха дворцовых переворотов.</t>
-  </si>
-  <si>
-    <t>[33]</t>
-  </si>
-  <si>
-    <t>Конец Северной войны. Россия – Империя, Пётр – Император.</t>
-  </si>
-  <si>
-    <t>30 августа [10 сентября] 1721 года между Россией и Швецией был заключён Ништадтский мир, ознаменовавший окончание Северной войны, которая длилась 21 год. 20 [31] октября Сенат преподнёс Петру Первому титул «Императора Петра Великого, Отца Отечества». Пётр официально стал Императором, а Россия – Империей.</t>
-  </si>
-  <si>
-    <t>Смерть Петра Петровича.</t>
-  </si>
-  <si>
-    <t>25 апреля [7 мая] 1719 года умер сын Петра Первого, Пётр Петрович, который согласно манифесту 1718 года считался наследником престола. Детей мужского пола у царя не осталось. Это сыграет важную роль в последующих событиях.</t>
-  </si>
-  <si>
-    <t>[33, 58]</t>
-  </si>
-  <si>
-    <t>Возвращение царевича Алексея. Манифест о новом наследнике. Допросы, приговор, смерть Алексея Петровича.</t>
-  </si>
-  <si>
-    <t>В начале 1718 года был возвращён в Россию царевич Алексей, бежавший за границу в 1716 году. 3 [14] февраля Пётр Первый издал манифест «О лишении старшего сына Алексея прав наследования престола Всероссийского и о назначении наследником малолетнего своего сына Петра». Алексей Петрович принёс присягу на верность новому наследнику и дал клятву никогда не претендовать на престол. Пётр I организовал массовые допросы и пытки приближённых своего сына. Ефросинья Фёдорова, новая возлюбленная Алексея, рассказала следствию якобы о замыслах царевича свергнуть отца и захватить престол с помощью австрийских войск. Показания Ефросиньи царь Пётр Алексеевич предъявил сыну во время их встречи в Петергофе во дворце Монплезир (этому событию посвящена знаменитая картина художника Н.Н. Ге). В середине июня Алексей был взят под стражу и заключён в Петропавловскую крепость. Ему был выдвинут смертный приговор, но до казни Алексей Петрович в итоге не дожил – 26 июня [7 июля] царевич был найден мёртвым в своей камере. Обстоятельства его смерти до сих пор неизвестны: по одной из версий, это была естественная смерть, по другой – его задушили соратники Петра.</t>
-  </si>
-  <si>
-    <t>[33, 47]</t>
-  </si>
-  <si>
-    <t>Свадьба Екатерины Иоанновны и Карла-Леопольда.</t>
-  </si>
-  <si>
-    <t>8 [19] апреля 1716 года Пётр I выдал замуж другую свою племянницу, дочь царя Иоанна V  Екатерину Иоанновну, замуж за герцога Мекленбург-Шверинского Карла-Леопольда. Они сохранили своё вероисповедание: Карл-Леопольд – католичество, Екатерина Иоанновна – православие. Однако супруги не сошлись характерами: герцог был взбалмошный и постоянно со всеми ссорился. Больше всего он не любил собственное дворянство, и дворяне отвечали ему взаимностью. Вскоре Карл-Леопольд был изгнан из своей страны и был вынужден вместе с женой искать защиты в Вене у австрийского императора. В 1718 году у пары родилась дочь, но даже после этого герцог не оставил борьбу за власть. В итоге супруги разъехались: Екатерина с дочерью вернулась в Россию, а Карл-Леопольд продолжил бороться с внутренними и внешними неприятелями. В итоге его окончательно лишили трона и посадили в тюрьму.</t>
-  </si>
-  <si>
-    <t>Рождение Петра Алексеевича. Смерть Шарлотты-Кристины-Софии. Рождение Петра Петровича.</t>
-  </si>
-  <si>
-    <t>12 [23] октября 1715 года у Алексея Петровича родился сын, названный Петром. Мать ребёнка, Шарлотта-Кристина-София, скончалась через несколько дней от послеродовой горячки. А через 2 недели, 27 октября [7 ноября] и у царя Петра Первого родился сын, которого тоже назвали Петром. В этой ситуации царевич Алексей становился ненужным отцу в качестве наследника, особенно потому, что имел с ним большие разногласия. Понимая опасность ситуации, царевич решил отказаться от престола. Но Петру этого было мало: царь стал принуждать сына постричься в монахи. На следующий год Алексей Петрович бежал за границу.</t>
-  </si>
-  <si>
-    <t>[33, 35, 47, 48, 58, 64]</t>
-  </si>
-  <si>
-    <t>Свадьба Петра I и Екатерины I.</t>
-  </si>
-  <si>
-    <t>19 февраля [1 марта] 1712 года в небольшой церкви Меншиковского дворца состоялась официальная церемония бракосочетания Петра Первого и Екатерины Первой. Дочери Анна и Елизавета, родившиеся до официального брака, теперь считались «привенчанными», хотя их изначальная «незаконорожденность» часто им припоминалась впоследствии. А Екатерина Алексеевна официально стала русской царицей, хотя её «зазорное» происхождение бывшей портомои тоже бросало тень на её высочайший статус.</t>
-  </si>
-  <si>
-    <t>Свадьба Алексея Петровича и Шарлотты-Кристины-Софии.</t>
-  </si>
-  <si>
-    <t>14 [25] октября 1711 года Пётр I женил своего сына, царевича Алексея, на принцессе Брауншвейг-Вольфенбюттельской Шарлотте-Кристине-Софии. Невеста не переходила в православие, а оставалась лютеранкой. Этот брак имел важное династическое значение: Шарлотта-Кристина-София была сестрой Елизаветы-Кристины Брауншвейг-Вольфтенбюттельской, которая была женой Карла Габбсбурга, императора Священно-Римской Империи (их дочерью была императрица Мария-Терезия, а внучкой – королева Мария-Антуанетта). Таким образом, Романовы становились родственниками одной из самых могущественных династий того времени – династии Габсбургов.</t>
-  </si>
-  <si>
-    <t>[47, 48]</t>
-  </si>
-  <si>
-    <t>Свадьба Анны Иоанновны и Фридриха-Вильгельма.</t>
-  </si>
-  <si>
-    <t>31 октября [11 ноября] 1710 года Пётр I выдал свою племянницу, дочь царя Иоанна V, Анну Иоанновну, замуж за герцога Курляндского Фридриха-Вильгельма. Это был первый брачный союз Романовых с европейскими правящими домами; до этого такие браки были невозможны по большей части из-за религиозной нетерпимости (хотя протестанты принимались лучше, чем католики – считалось, что первых легче обратить в православие). Однако брак Анны и Фридриха был совсем недолгим: герцог умер в январе следующего года по дороге из Петербурга на Родину (по разным слухам, он скончался после свадьбы, потому что не смог перепить Петра). Вдовствующая Анна сначала вернулась в Петербург, но потом царь приказал ей ехать обратно в Митаву (столицу Курляндского герцогства), чтобы с помощью неё можно было проводить там политику петербургского двора. В Митаве Анна Иоанновна провела последующие 20 лет, пока события 1730 года круто не поменяли её жизнь.</t>
-  </si>
-  <si>
-    <t>[33, 43, 44]</t>
-  </si>
-  <si>
-    <t>Смерть царевны Софьи.</t>
-  </si>
-  <si>
-    <t>3 [14] июля 1704 года умерла бывшая царевна Софья. С момента последнего Стрелецкого бунта она прожила 6 лет в монастыре и так и не вышла на свободу. Софья Алексеевна была похоронена там же, в Смоленском Соборе Новодевичьего монастыря.</t>
-  </si>
-  <si>
-    <t>[22]</t>
-  </si>
-  <si>
-    <t>Основание Санкт-Петербурга.</t>
-  </si>
-  <si>
-    <t>16 [27] мая 1703 года царь Пётр I заложил первый камень в постройку Петропавловской крепости на Заячьем острове. Эта дата считается днём основания города Санкт-Петербурга, будущей столицы Российском Империи.</t>
-  </si>
-  <si>
-    <t>Знакомство с Мартой Скавронской (в будущем – Екатерина I)</t>
-  </si>
-  <si>
-    <t>Примерно в 1702 году Пётр I встретил девушку по имени Марта Скавронская. Она происходила из латышских или литовских крестьян, в юности прислуживала в доме у местного пастора в лифляндском городе Мариенбурге. Во время Северной войны, когда город был взят русскими солдатами, она попала в плен и спустя после череды переездов оказалась в доме у фельдмаршала Б.П. Шереметева. Там девушку заметил А.Д. Меншиков и забрал к себе в дом, где её и увидел царь Пётр Первый. Через год у них завязались любовные отношения, а через 2 года, в 1704, Марта была крещена в православие с именем Екатерина Алексеевна. Её крёстным отцом стал сын Петра Алексей Петрович, а крёстной матерью – сестра Петра Екатерина Алексеевна (в честь которой спутница царя и получила своё имя). У пары появлялись на свет дети, хотя со свадьбой Пётр и Екатерина не торопились.</t>
-  </si>
-  <si>
-    <t>Разрыв Петра I с Евдокией Лопухиной.</t>
-  </si>
-  <si>
-    <t>С самых первых лет своего правления, Пётр I принялся во всём уничтожать пережитки прошлого. Символом старины для него была даже жена, Евдокия Фёдоровна Лопухина. Чувства между супругами сохранялись около двух лет после брака. Но потом Пётр стал изменять жене, а вернувшись из Великого Посольства, решил окончательно порвать с ней отношения. Таким образом, в июне 1699 года Евдокия Лопухина была насильно пострижена в монахини с именем Елена в Покровском монастыре в Суздале (куда она была сослана за девять месяцев до этого). Их малолетний сын Алексей Петрович остался в селе Преображенском на попечении у своей тётки Натальи Алексеевны, сестры Петра.</t>
-  </si>
-  <si>
-    <t>[33, 36, 34, 47]</t>
-  </si>
-  <si>
-    <t>Очередной стрелецкий бунт.</t>
-  </si>
-  <si>
-    <t>В 1698 году, на второй год путешествия Петра Первого с Великим посольством по Европе, в Москве вновь разгорелось пламя мятежа. Четыре стрелецких полка, посланные на литовскую границу, взбунтовались и двинулись к Москве. Пётр прервал свою поездку и поспешил домой, однако мятеж закончился ещё до его возвращения: стрельцы были остановлены и разбиты частями новой регулярной армии. Приехав в столицу, царь учинил стрельцам розыск и жестокую расправу (то самое «Утро стрелецкой казни»). В подготовке мятежа обвинили опальную царевну Софью. 11 [21] октября 1698 года над ней был устроен суд, и через десять дней она была пострижена в том же самом Новодевичьем монастыре с именем Сусанна. За её окнами в монастыре были повешены 195 стрельцов.</t>
-  </si>
-  <si>
-    <t>[22, 33]</t>
-  </si>
-  <si>
-    <t>Смерть Ивана Алексеевича.</t>
-  </si>
-  <si>
-    <t>29 января [8 февраля] 1696 года умер царь Иоанн V. Пётр I стал единовластным правителем. Жена Ивана Алексеевича, Прасковья Фёдоровна, осталась с детьми жить в подмосковном Измайлове. Она сохранила хорошие отношения с Петром и с остальными родственниками.</t>
-  </si>
-  <si>
-    <t>[30, 31, 33]</t>
-  </si>
-  <si>
-    <t>Свадьба Петра Алексеевича и Евдокии Лопухиной. Попытка Софьи захватить власть. Стрелецкий бунт.</t>
-  </si>
-  <si>
-    <t>27 января [6 февраля] 1689 года царевич Пётр по настоянию матери женился на представительнице старого дворянского рода Евдокии Фёдоровне Лопухиной. По сути, он становился совершеннолетним и мог уже править самостоятельно. Положение Софьи ухудшалось. Тогда в ночь с 7 на 8 [с 17 на 18] августа 1689 она попыталась собрать стрелецкие полки в Москве для захвата власти. Пётр Алексеевич из Преображенского верхом ночью поскакал в Троице-Сергиев монастырь, который стал базой сопротивления бунтующей царевне. Иван сначала поддержал сестру, но когда понадобились решительные действия, сказал, что с братом ссориться не будет. Вскоре и сторонники Софьи стали постепенно переходить на сторону Петра, так что в конце концов она осталась одна. В итоге Софья была арестована, обвинена в измене и отправлена в Московский Новодевичий Монастырь. А у Петра после этих событий остался тик, выступавший на его лице в моменты раздражений.</t>
-  </si>
-  <si>
-    <t>[22, 30, 33, 36]</t>
-  </si>
-  <si>
-    <t>Свадьба Ивана Алексеевича и Прасковьи Салтыковой.</t>
-  </si>
-  <si>
-    <t>9 [19] января 1684 царь Иоанн V женился на дочери стольника Прасковье Фёдоровне Салтыковой. Прасковья не хотела выходить замуж за Ивана, но на женитьбе настояла царевна Софья.Старшая сестра Ивана надеялась на то, что у него родится наследник, за спиной которого она сможет сохранить свою власть. У Ивана Алексеевича и Прасковьи Фёдоровны родилось 5 детей, но все они были девочками. Несмотря на это, дочь, внучка и правнук царя в какое-то время являлись правителями страны.</t>
-  </si>
-  <si>
-    <t>[22, 30, 31]</t>
-  </si>
-  <si>
-    <t>Свадьба и смерть Фёдора Алексеевича. Воцарение Ивана и Петра под регентством старшей сестры Софьи.</t>
-  </si>
-  <si>
-    <t>15 [25] февраля 1682 года Фёдор Алексеевич женился во второй раз – на этот раз его невестой стала дочь стряпчего Марфа Матвеевна Апраксина. Но царь был серьёзно болен – сказались детская травма и наследственные болезни. 27 апреля [7 мая] 1682 года Фёдор Алексеевич умер, не дожив месяц до 21 года. Следующим по старшинству был 16-летний Иван, но так как он с детства много болел и вскоре тоже мог умереть, царём был провозглашён 9-летний Пётр, сын Алексея Михайловича от брака с Натальей Нарышкиной. Но Милославские, во главе с Софьей Алексеевной, организовали стрелецкий бунт, который вошёл в историю под названием «Хованщина» (по фамилии одного из лидеров восстания, И.А. Хованского). Стрельцы ворвались в Кремль и убили несколько сторонников Нарышкиных, в том числе их лидера, боярина Артамона Матвеева и брата царицы Ивана Нарышкина. Всё это случилось прямо на глазах у малолетнего Петра, так что после этого события он страдал припадками гнева и судорогами. В итоге бунтовщиками была подана челобитная, по которой власть должен был получить законный наследник, 16-летний Иван Алексеевич (Иоанн V), Пётр становился его соправителем, а регентшей при несовершеннолетних царевичах объявлялась их старшая сестра Софья. 25 июня [5 июля] 1682 года братья были венчаны на царство; для Петра изготовили так называемую шапку Мономаха второго наряда (он считался «младшим царём»). Иван и Пётр стали править вдвоём, для них даже был сделан специальный «двойной» трон. Вскоре, Пётр Алексеевич уехал из Москвы в село Преображенское, и приезжал в столицу только для официальных церемоний. Вдали от города он был предоставлен сам себе: упражнялся в военном искусстве со своими потешными полками, познакомился с корабельным делом, часто бывал в Немецкой слободе. Всё это сыграло впоследствии важную роль в его жизни.</t>
-  </si>
-  <si>
-    <t>[9, 22, 24, 27, 30, 33]</t>
-  </si>
-  <si>
-    <t>Смерть Агафьи Грушецкой. Рождение и смерть Ильи Фёдоровича.</t>
-  </si>
-  <si>
-    <t>14 [24] июля 1681 года, спустя год после свадьбы, Агафья Семёновна Грушецкая. умерла. Смерть произошла через несколько дней после родов. Спустя ещё неделю, 21 [31] июля умер и сам ребёнок, Илья Фёдорович.</t>
-  </si>
-  <si>
-    <t>[26, 38]</t>
-  </si>
-  <si>
-    <t>Свадьба Фёдора Алексеевича и Агафьи Грушецкой.</t>
-  </si>
-  <si>
-    <t>18 [28] июля 1680 года Фёдор Алексеевич женился на Агафье Семёновне Грушецкой, дочери мелкого воеводы-дворянина.</t>
-  </si>
-  <si>
-    <t>[24, 26]</t>
-  </si>
-  <si>
-    <t>Смерть Алексея Михайловича. Воцарение Фёдора Алексеевича.</t>
-  </si>
-  <si>
-    <t>29 января [8 февраля] 1676 года умер царь Алексей Михайлович. На престол взошёл старший из его сыновей, Фёдор Алексеевич. Он был венчан на царство 18 [28] июня 1676 года в Успенской соборе Московского Кремля. Воцарение Фёдора выдвинуло на первый план его родственников по матери – семейство Милославских. Нарышкины попали в опалу: царица Наталья Кирилловна с детьми была удалена от двора, а её братья отправлены в ссылку. Однако впоследствии царь освободился из-под влияния Милославских и мягчился в своём отношении к сводным родственникам.</t>
-  </si>
-  <si>
-    <t>[8, 24]</t>
-  </si>
-  <si>
-    <t>Рождение Петра  Алексеевича.</t>
-  </si>
-  <si>
-    <t>30 мая [9 июня] 1672 у царя Алексея Михайловича родился очередной сын, названный Петром. Наличие старших братьев не предполагало, что Пётр когда-нибудь станет правителем России. Однако судьба распорядилась иначе: Петру I было суждено править страной несколько десятилетий, и в результате его правления Россия стала Империей, а сам Пётр получил титул «Великий». Не последнюю роль в таком успешном пути к власти сыграло его здоровье: мальчик, в отличие от своих братьев, рос живым и активным. Он был любознательным, как отец Алексей Михайлович и самоуверенным, как сестра Софья – эти качества характеризовали впоследствии Петра как самодержца.</t>
-  </si>
-  <si>
-    <t>Свадьба Алексея Михайловича и Натальи Нарышкиной.</t>
-  </si>
-  <si>
-    <t>22 января [1 февраля] 1671 года Алексей Михайлович женился во второй раз – его невестой стала Наталья Кирилловна Нарышкина, приближённая боярина А.С. Матвеева. От неё у царя родилось 3 ребёнка, в том числе и будущий Император Пётр Великий.</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>Смерть Марии Милославской.</t>
-  </si>
-  <si>
-    <t>3 [13] марта 1669 года умерла царица Мария Ильинична Милославская. В живых после неё осталось 9 детей. В дальнейшем,при династических спорах, дети Марии Ильиничны составляли клан «Милославских».</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>Рождение Ивана Алексеевича.</t>
-  </si>
-  <si>
-    <t>27 августа [6 сентября] 1666 у царя Алексея Михайловича родился сын, названный Иваном (Иоанн V). Он был слаб физически: болел цингой и падучей, имел проблемы со зрением и дефекты речи. Однако вопреки расхожему мнению, слабоумным он не был. В будущем, из-за своего плохого здоровья, Иван Алексеевич почти не участвовал в управлении государством, оказавшись заложником политических интриг.</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>Смерть Дмитрия Алексеевича.</t>
-  </si>
-  <si>
-    <t>6 [16] октября 1649 года, спустя почти год после рождения, умер Дмитрий Алексеевич, первый сын царя Алексея Михайловича. Похоронен в Архангельском соборе Московского Кремля.</t>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>Свадьба Алексея Михайловича и Марии Милославской.</t>
-  </si>
-  <si>
-    <t>16 [26] января 1648 года Алексей Михайлович женился на дочери стольника Марии Ильиничне Милославской. Эту кандидатуру ему посоветовал воспитатель царя, боярин Б.И. Морозов, который сам женился её сестре. В счастливом браке с Марией Милославской у Алексея Михайловича родилось 13 детей, трое из них были в какое-то время правителями страны.</t>
-  </si>
-  <si>
-    <t>[8, 7]</t>
-  </si>
-  <si>
-    <t>Смерть Михаила Фёдоровича и Евдокии Стрешневой. Воцарение Алексея Михайловича.</t>
-  </si>
-  <si>
-    <t>Царь Михаил Фёдорович умер в ночь на 12 [22] июля 1645 года, т.е. в свой День рождения, когда ему должно было исполниться 49 лет. Почти через месяц, 18 [28] августа умерла и его жена, Евдокия Лукьяновна Стрешнева. Престол перешёл к старшему сыну Михаила Фёдоровича, Алексею Михайловичу, который 28 сентября [8 октября] был венчан на царство в Успенском соборе Московского Кремля.</t>
-  </si>
-  <si>
-    <t>[2, 4, 8]</t>
-  </si>
-  <si>
-    <t>Свадьба Михаила Фёдоровича и Евдокии Стрешневой.</t>
-  </si>
-  <si>
-    <t>5 [15] февраля 1626 года царь Михаил Фёдорович женился во второй раз – его невестой стала дочь дворянина Евдокия Лукьяновна Стрешнева. С ней царь прожил в браке почти 20 лет, и за это время у них родилось десять детей. Несмотря на неудачный первый брак и смерть первой жены, в итоге семейная жизнь Михаила Фёдоровича оказалась счастливой.</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>Свадьба Михаила Фёдоровича и Марии Долгорукой.</t>
-  </si>
-  <si>
-    <t>18 [28] сентября 1624 года царь Михаил Фёдорович женился на княжне Марии Владимировне Долгорукой. Но уже на следующий день после свадьбы она занемогла и, проболев три с лишним месяца, умерла.</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>Возвращение Патриарха Филарета.</t>
-  </si>
-  <si>
-    <t>1 [11] декабря 1618 года заключено Деулинское перемирие с Речью Посполитой – завершилась многолетняя война с Польшей. Через полгода отец Михаила Фёдоровича, Патриарх Филарет (в миру Фёдор Никитич Романов), смог вернуться домой из польского плена. Впоследствии отец царя принимал активное участие в управлении государством.</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>Воцарение Михаила Фёдоровича.</t>
-  </si>
-  <si>
-    <t>21 февраля [3 марта] 1613 года Земский Собор избрал на царство 16-летнего Михаила Фёдоровича Романова, сына боярина Фёдора Никитича Романова. Михаил Фёдорович приходился двоюродным племянником Фёдору Иоанновичу, последнему царю из династии Рюриковичей. 11 [21] июля Михаил был венчан на царство в Успенском cоборе Московского Кремля. Началась история новой династии.</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>Рождение Ирины Михайловны.</t>
-  </si>
-  <si>
-    <t>22 апреля [2 мая] у Михаила Фёдоровича и Евдокии Лукьяновны родился первенец – дочка Ирина.</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>Рождение Алексея Михайловича.</t>
-  </si>
-  <si>
-    <t>9 [19] марта 1629 года у Михаила Фёдоровича и Евдокии Лукьяновны родился мальчик, названный Алексеем, будущий царь Алексей Михайлович.</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>Смерть Ксении Шестовой.</t>
-  </si>
-  <si>
-    <t>26 января [5 февраля] 1631 года умерла мать царя Михаила Фёдоровича, Ксения Шестова.</t>
-  </si>
-  <si>
-    <t>Смерть Фёдора Никитича.</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>1 [11] октября 1633 умер отец царя Михаила Фёдоровича, патриарх Филарет (Фёдор никитич Романов).</t>
-  </si>
-  <si>
-    <t>[41, 43]</t>
-  </si>
-  <si>
-    <t>[41, 42, 45, 55, 64]</t>
-  </si>
-  <si>
-    <t>[42]</t>
-  </si>
-  <si>
-    <t>[41, 43, 61]</t>
-  </si>
-  <si>
-    <t>[42, 55, 61, 67]</t>
-  </si>
-  <si>
-    <t>[66, 73, 77]</t>
-  </si>
-  <si>
-    <t>Эта родословная охватывает период с 1612 по 1801 год. Здесь вы можете посмотреть, какое было положение дел на конкретый момент: кто был жив, кто мёртв, кому сколько было лет, кто правил в тот период. Также вы можете получить краткую историческую информацию - что происходило в определённый год. Личности, о которых идёт речь, подсвечены отдельно. Для запуска родословной просто передвиньте ползунок!</t>
-  </si>
-  <si>
-    <t>Добро пожаловать на сайт интерактивной родословной династии Романовых!</t>
+    <t>Фёдор Алексеевич женился на Агафье Грушецкой.</t>
+  </si>
+  <si>
+    <t>18 [28] июля 1680 года состоялась свадьба царя Фёдора Алексеевича и Агафьи Семёновны Грушецкой, дочери мелкого воеводы-дворянина.</t>
+  </si>
+  <si>
+    <t>Умерла Агафья Грушецкая. У Фёдора Алексеевича родился и умер сын Илья.</t>
+  </si>
+  <si>
+    <t>14 [24] июля 1681 года, спустя год после свадьбы, Агафья Семёновна Грушецкая, умерла. Смерть произошла через несколько дней после родов. Спустя ещё неделю, 21 [31] июля умер и сам ребёнок, Илья Фёдорович.</t>
+  </si>
+  <si>
+    <t>Умер Фёдор Алексеевич, не имея наследников. Престол перешёл его братьям Ивану и Петру под регентством старшей сестры Софьи.</t>
+  </si>
+  <si>
+    <t>[22, 30, 33]</t>
+  </si>
+  <si>
+    <t>Иван Алексеевич женился на Прасковье Салтыковой.</t>
+  </si>
+  <si>
+    <t>9 [19] января 1684 состоялась свадьба царя Иоанна V и дочери стольника Прасковьи Фёдоровны Салтыковой. Прасковья не хотела выходить замуж за Ивана, но на женитьбе настояла царевна Софья. Старшая сестра Ивана надеялась на то, что у него родится наследник, за спиной которого она сможет сохранить свою власть. У Ивана Алексеевича и Прасковьи Фёдоровны родилось 5 детей, но все они были девочками. Несмотря на это, дочь, внучка и правнук царя в какое-то время являлись правителями страны.</t>
+  </si>
+  <si>
+    <t>Пётр Алексеевич женился на Евдокии Лопухиной. Софья попыталась самолично захватить власть, организовав стрелецкий бунт.</t>
+  </si>
+  <si>
+    <t>15 [25] февраля 1682 года Фёдор Алексеевич женился во второй раз – на этот раз его невестой стала дочь стряпчего Марфа Матвеевна Апраксина. Но царь был серьёзно болен – сказались детская травма и наследственные болезни. 27 апреля [7 мая] 1682 года Фёдор Алексеевич умер, не дожив месяц до 21 года. Наследников он после себя не оставил, так что правителем должен был стать кто-то из его братьев. Следующим по старшинству был 16-летний Иван, но так как он с детства много болел и вскоре тоже мог умереть, царём был провозглашён 9-летний Пётр, сын Алексея Михайловича от брака с Натальей Нарышкиной.&lt;p&gt;Но Милославские, во главе с Софьей Алексеевной, организовали стрелецкий бунт, который вошёл в историю под названием «Хованщина» (по фамилии одного из лидеров восстания, И.А. Хованского). Стрельцы ворвались в Кремль и убили несколько сторонников Нарышкиных, в том числе их лидера, боярина Артамона Матвеева и брата царицы Ивана Нарышкина. Всё это случилось прямо на глазах у малолетнего Петра, так что после этого события он страдал припадками гнева и судорогами. В итоге бунтовщиками была подана челобитная, по которой власть должен был получить законный наследник, 16-летний Иван Алексеевич (Иоанн V). Пётр становился его соправителем, а регентшей при несовершеннолетних царевичах объявлялась их старшая сестра Софья.&lt;/p&gt;&lt;p&gt;25 июня [5 июля] 1682 года братья были венчаны на царство; для Петра изготовили так называемую шапку Мономаха второго наряда (он считался «младшим царём»). Иван и Пётр стали править вдвоём, для них даже был сделан специальный «двойной» трон. Вскоре, Пётр Алексеевич уехал из Москвы в село Преображенское, и приезжал в столицу только для официальных церемоний. Вдали от города он был предоставлен сам себе: упражнялся в военном искусстве со своими потешными полками, познакомился с корабельным делом, часто бывал в Немецкой слободе. Всё это сыграло впоследствии важную роль в его жизни.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>27 января [6 февраля] 1689 года царевич Пётр по настоянию матери женился на представительнице старого дворянского рода Евдокии Фёдоровне Лопухиной. По сути, он становился совершеннолетним и мог уже править самостоятельно. Положение Софьи, которая была регентшей при малолетних царях, ухудшалось.&lt;p&gt;Тогда в ночь с 7 на 8 [с 17 на 18] августа 1689 она попыталась собрать стрелецкие полки в Москве для захвата власти. Пётр Алексеевич из Преображенского верхом ночью поскакал в Троице-Сергиев монастырь, который стал базой сопротивления бунтующей царевне. Иван сначала поддержал сестру, но когда понадобились решительные действия, сказал, что с братом ссориться не будет.&lt;/p&gt;&lt;p&gt;Вскоре и сторонники Софьи стали постепенно переходить на сторону Петра, так что в конце концов она осталась одна. В итоге Софья была арестована, обвинена в измене и отправлена в Московский Новодевичий монастырь. А у Петра после этих событий остался тик, выступавший на его лице в моменты раздражений.</t>
+  </si>
+  <si>
+    <t>Правители - Пётр и Иван при регентстве царевны Софьи.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич с братом Иваном (не участвовал в государственных делах)</t>
+  </si>
+  <si>
+    <t>[30, 33]</t>
+  </si>
+  <si>
+    <t>Умер Иван Алексеевич.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 1 ребёнок. Наследник - Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>Произошёл очередной стрелецкий бунт - царевна Софья снова попыталась захватить власть.</t>
+  </si>
+  <si>
+    <t>В 1698 году, на второй год путешествия Петра Первого с Великим посольством по Европе, в Москве вновь разгорелось пламя мятежа. Четыре стрелецких полка, посланные на литовскую границу, взбунтовались и двинулись к Москве. Пётр прервал свою поездку и поспешил домой, однако мятеж закончился ещё до его возвращения: стрельцы были остановлены и разбиты частями новой регулярной армии. Приехав в столицу, царь учинил стрельцам розыск и жестокую расправу (то самое «Утро стрелецкой казни»).&lt;p&gt;В подготовке мятежа обвинили опальную царевну Софью. 11 [21] октября 1698 года над ней был устроен суд, и через десять дней она была пострижена в том же самом Новодевичьем монастыре с именем Сусанна. За её окнами в монастыре были повешены 195 стрельцов.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Пётра Первый порвал отношение со своей женой Евдокией Лопухиной.</t>
+  </si>
+  <si>
+    <t>Пётр Алексеевич познакомился с Мартой Скавронской (в будущем – Екатерина I)</t>
+  </si>
+  <si>
+    <t>Примерно в 1702 году Пётр I встретил девушку по имени Марта Скавронская. Она происходила из латышских или литовских крестьян, в юности прислуживала в доме у местного пастора в лифляндском городе Мариенбурге. Во время Северной войны, когда город был взят русскими солдатами, она попала в плен и спустя после череды переездов оказалась в доме у фельдмаршала Б.П. Шереметева. Там девушку заметил А.Д. Меншиков и забрал к себе в дом, где её и увидел царь Пётр Первый.&lt;p&gt;Через год у них завязались любовные отношения, а через 2 года, в 1704, Марта была крещена в православие с именем Екатерина Алексеевна. Её крёстным отцом стал сын Петра Алексей Петрович, а крёстной матерью – сестра Петра Екатерина Алексеевна (в честь которой спутница царя и получила своё имя). У пары появлялись на свет дети, хотя со свадьбой Пётр и Екатерина не торопились.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Основан город Санкт-Петербург.</t>
+  </si>
+  <si>
+    <t>Умерла царевна Софья.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 3 ребёнка. Наследник - Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 4 ребёнка. Наследник - Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 2 ребёнка. Наследник - Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>Родился Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>18 [28] февраля 1690 года у Петра Первого родился сын, названный Алексеем. Он считался наследником престола, но из-за конфликта с отцом был лишён этого статуса. Он бежал за границу, но возвращён оттуда и подвергнут суду за то, что якобы составил заговор. В историю Алексей Петрович вошёл как царевич Алексей, который стал прямой жертвой Петровских преобразований.</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>Родилась Анна Иоанновна</t>
+  </si>
+  <si>
+    <t>Двор переезжает в Санкт-Петербург.</t>
+  </si>
+  <si>
+    <t>Новая столица России, город Санкт-Петербург, постепенно осваивается. В 1708 году из Москвы туда переезжают многие представители династии.</t>
+  </si>
+  <si>
+    <t>18 [29] декабря 1709 года у царя Петра Алексеевича родилась дочь, названная Елизаветой. Елизавета Петровна, как и Анна Иоанновна, придёт к власти в результате дворцового переворота и войдёт в историю России своим 20-летним правлением.</t>
+  </si>
+  <si>
+    <t>Родилась Елизавета Петровна.</t>
+  </si>
+  <si>
+    <t>Анна Иоанновна вышла замуж за Фридриха-Вильгельма.</t>
+  </si>
+  <si>
+    <t>Алексей Петрович женился на Шарлотте-Кристине-Софии.</t>
+  </si>
+  <si>
+    <t>31 октября [11 ноября] 1710 года Пётр I выдал свою племянницу, дочь царя Иоанна V, Анну Иоанновну, замуж за герцога Курляндского Фридриха-Вильгельма. Это был первый брачный союз Романовых с европейскими правящими домами; до этого такие браки были невозможны по большей части из-за религиозной нетерпимости (хотя протестанты принимались лучше, чем католики – считалось, что первых легче обратить в православие).&lt;p&gt;Однако брак Анны и Фридриха был совсем недолгим: герцог умер в январе следующего года по дороге из Петербурга на Родину (по разным слухам, он скончался после свадьбы, потому что не смог перепить Петра). Вдовствующая Анна сначала вернулась в Петербург, но потом царь приказал ей ехать обратно в Митаву (столицу Курляндского герцогства), чтобы с помощью неё можно было проводить там политику петербургского двора. В Митаве Анна Иоанновна провела последующие 20 лет, пока события 1730 года круто не поменяли её жизнь.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Пётр I и Екатерина I наконец заключили официальный брак.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 5 детей. Наследник - Алексей Петрович.</t>
+  </si>
+  <si>
+    <t>Екатерина Иоанновна вышла замуж за Карла-Леопольда.</t>
+  </si>
+  <si>
+    <t>8 [19] апреля 1716 года Пётр I выдал замуж другую свою племянницу, дочь царя Иоанна V  Екатерину Иоанновну, замуж за герцога Мекленбург-Шверинского Карла-Леопольда. Они сохранили своё вероисповедание: Карл-Леопольд – католичество, Екатерина Иоанновна – православие. Однако супруги не сошлись характерами: герцог был взбалмошный и постоянно со всеми ссорился. Больше всего он не любил собственное дворянство, и дворяне отвечали ему взаимностью.&lt;p&gt;Вскоре Карл-Леопольд был изгнан из своей страны и был вынужден вместе с женой искать защиты в Вене у австрийского императора. В 1718 году у пары родилась дочь, но даже после этого герцог не оставил борьбу за власть. В итоге супруги разъехались: Екатерина с дочерью вернулась в Россию, а Карл-Леопольд продолжил бороться с внутренними и внешними неприятелями. В итоге его окончательно лишили трона и посадили в тюрьму.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 4 ребёнка. Наследник не выбран.</t>
+  </si>
+  <si>
+    <t>Царевич Алексей вернулся из-за границы но был подвергнут суду и убит. Пётр Первый издал манифест о новом наследнике (Пётр Петрович)</t>
+  </si>
+  <si>
+    <t>В начале 1718 года был возвращён в Россию царевич Алексей, бежавший за границу в 1716 году. 3 [14] февраля Пётр Первый, у которого был конфликт с сыном, издал манифест «О лишении старшего сына Алексея прав наследования престола Всероссийского и о назначении наследником малолетнего своего сына Петра». Алексей Петрович принёс присягу на верность новому наследнику и дал клятву никогда не претендовать на престол. Пётр I организовал массовые допросы и пытки приближённых своего сына. Ефросинья Фёдорова, новая возлюбленная Алексея, рассказала следствию якобы о замыслах царевича свергнуть отца и захватить престол с помощью австрийских войск. Показания Ефросиньи царь Пётр Алексеевич предъявил сыну во время их встречи в Петергофе во дворце Монплезир (этому событию посвящена знаменитая картина художника Н.Н. Ге).&lt;p&gt;В середине июня Алексей был взят под стражу и заключён в Петропавловскую крепость. Ему был выдвинут смертный приговор, но до казни Алексей Петрович в итоге не дожил – 26 июня [7 июля] царевич был найден мёртвым в своей камере. Обстоятельства его смерти до сих пор неизвестны: по одной из версий, это была естественная смерть, по другой – его задушили соратники Петра.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[33, 47, 58]</t>
+  </si>
+  <si>
+    <t>Пётра Петрович умер, царь остался без наследника.</t>
+  </si>
+  <si>
+    <t>У царя Петра Первого родился внук, а потом другой сын. Оба младенца тоже получили имя Пётр.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 3 детей. Наследника нет.</t>
+  </si>
+  <si>
+    <t>Закончилась Северная война. Россия стала Империей, а Пётр – Императором.</t>
+  </si>
+  <si>
+    <t>Император Пётр Алексеевич выпустил Указ о новом порядке престолонаследия.</t>
+  </si>
+  <si>
+    <t>Правитель - Пётр Алексеевич, у него 3 детей. Наследник не выбран.</t>
+  </si>
+  <si>
+    <t>Анна Петровна обручилась с Карлом-Фридрихом.</t>
+  </si>
+  <si>
+    <t>24 ноября [5 декабря] 1724 года Анна Петровна, дочь Петра Первого, была обручена с Карлом-Фридрихом, герцогом Гольштейн-Готторпским. Карл-Фридрих был племянником шведского короля Карла XII, многолетнего противника Петра I в Северной войне. Таким образом, как и прочие династические браки детей Петра, союз Анны и Карла-Фридриха связывал Россию с европейскими правящими домами. В подписанном брачном контракте Анна за себя и своих потомков отказывалась от притязаний на российский престол.&lt;p&gt;Но контракт содержал секретный артикул, согласно которому Пётр I имел право забрать кого-либо из их потомков в Россию и сделать его наследником. Этим воспользовалась Елизавета Петровна в 1742 году, пригласив в Санкт-Петербург своего племянника, сына Анны и Карла-Фридриха Карла-Петера-Ульриха (названного в честь обоих своих родственников: Карла XII и Петра I), который впоследствии стал императором Петром III.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Умер Пётр I, на престол взошла Екатерина I.</t>
+  </si>
+  <si>
+    <t>Умерла Екатерина I. После долгих споров на престол взошёл внук Петра I Пётр II.</t>
+  </si>
+  <si>
+    <t>6 [17] мая 1727 года умерла Екатерина Первая. Сразу после её смерти был зачитан тестамент императрицы – завещание, в котором Екатерина описала последующий порядок престолонаследия. Согласно этому тестаменту, власть передавалась внуку Петра I, Петру II. 11-летний Пётр Алексеевич объявлялся российским самодержцем, но реальная власть сосредотачивалась у регентского совета, в состав которого входили цесаревны Елизавета и Анна, муж Анны Карл-Фридрих, а также члены Верховного тайного совета. Тестамент регламентировал и дальнейший порядок: если Пётр умрёт бездетным, его наследницей становится цесаревна Анна и кто-либо из её детей, затем цесаревна Елизавета и кто-либо из её детей, а затем Великая княжна Наталья и кто-нибудь из её детей. Отдельным пунктом было прописано, что монархом может стать только представитель православной веры (например, муж Анны Карл-Фридрих не мог стать императором). Этим тестаментом напрямую нарушалось действие устава Петра Первого «О престолонаследии» от 1722 года, ведь в таком случае тестамент заранее решал за монархов, кому передаётся престол.&lt;p&gt;Меншиков, зная, что престол перейдёт Петру Второму, поэтому ещё до смерти Екатерины договорился с ней, что наследник женится на дочери князя Марии Александровне Меншиковой. Александр Данилович начал «готовить себе почву» и не расставался с юным императором, но вскоре Пётр стал охладевать к своему наставнику. В какой-то момент А.Д. Меншиков заболел, и его отсутствием воспользовались Долгорукие, чтобы приблизиться к императору. Так, новым другом 11-летнего Петра стал 19-летний Иван Алексеевич Долгорукий. В итоге юного Петра Алексеевича настроили против Меншикова так, что свадьба с Марией была расторгнута, а Святлейший князь был арестован и вместе с семьёй отправлен в ссылку, где и умер в 1729 году.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Двор переехал в Москву.</t>
+  </si>
+  <si>
+    <t>Император Пётр II обручился с Екатериной Долгорукой.</t>
+  </si>
+  <si>
+    <t>Двор переезжает обратно в Санкт-Петербург.</t>
+  </si>
+  <si>
+    <t>Анна Леопольдовна была крещена в православие. Её мать, Екатерина Иоанновна, умерла.</t>
+  </si>
+  <si>
+    <t>Анна Иоанновна вернула старый порядок престолонаследия «по желанию государя».</t>
+  </si>
+  <si>
+    <t>Правитель - Анна Иоанновна. Наследник не выбран.</t>
+  </si>
+  <si>
+    <t>Анна Леопольдовна вышла замуж за Антона-Ульриха.</t>
+  </si>
+  <si>
+    <t>3 [14] июля 1739 года состоялась свадьба Анны Леопольдовны и принца Антона-Ульриха, племянника Шарлотты-Кристины-Софии (жены царевича Алексея Петровича). Последующие события впишут их имена в историю.</t>
+  </si>
+  <si>
+    <t>Родился Иоанн Антонович, и сразу после смерти Анны Иоанновны он был провозглашён императором (при регентстве своей матери)</t>
+  </si>
+  <si>
+    <t>Елизавета Петровна организовала гвардейский переворот и стала новой императрицей, свергнув Анну Леопольдовну с малолетним сыном.</t>
+  </si>
+  <si>
+    <t>В Россию приехал Пётр III (Карл-Петер-Ульрих), племянник Елизаветы Петровны. Он стал наследником престола.</t>
+  </si>
+  <si>
+    <t>Пока российский престол в течение почти 20 лет переходил из рук в руки, в Германии подрастал внук Петра I, Карл-Петер-Ульрих, герцог Гольштейн-Готторпский. Его родители Анна Петровна и Карл-Фридрих рано умерли, и маленький сирота один остался правителем небольшого государства на севере Германии.&lt;p&gt;Но к 1742 году он был единственным возможным наследником престола, поэтому 5 [16] февраля герцог, по приказу Елизаветы Петровны вернулся в Россию. Карл-Петер-Ульрих был официально объявлен наследником престола и крещён в православие с именем Пётр Фёдорович (Пётр III). Поэтому следующие Романовы, потомки Петра III, также считаются представителями Гольштейн-Готторпской династии.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>В Россию была приглашена принцесса София-Фредерика-Августа, будущая императрица Екатерина II.</t>
+  </si>
+  <si>
+    <t>Императрица Елизавета Петровна подыскивала невесту своему племяннику, наследнику престола Петру III. Выбор пал на юную немецкую принцессу из города Шеттина, которую звали София-Фредерика-Августа. Это было не случайно: Елизавета всячески покровительствовала гольштинской династии, ведь её первый возлюбленный, герцог Карл-Август Гольштинский, был представителем именно  этой династии. Он был братом Карла-Фридриха (мужа сестры Елизаветы), и как раз приходился двоюродным братом мамы юной Софии. Таким образом, получалось, что приглашённая принцесса являлась троюродной сестрой Петра III.&lt;p&gt;Это была идеальная кандидатура: она была протестанткой, что облегчало переход в православие, а также «из знатного, но столь малого рода, дабы ни связи, ни свита принцессы не возбуждали особенного внимания или зависти здешнего народа». В начале 1744 года София-Фредерика-Августа вместе с матерью Иоганной-Елизаветой прибыла в Россию. 28 июня [9 июля] 1744 она была крещена в православие в Успенском соборе Московского Кремля с именем Екатерина Алексеевна. На следующий день Екатерина была обручена с Петром III.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Пётр III и Екатерина II поженились.</t>
+  </si>
+  <si>
+    <t>21 августа [1 сентября] 1745 года состоялась свадьба Петра III Фёдоровича и Екатерины II Алексеевны. Их брак не был удачным – супруги не любили друг друга. Они были вместе только для того, чтобы родить наследника. Этого долго не получалось сделать, и только спустя 9 лет после свадьбы Екатерина родила сына Павла. Когда это произошло, то супруги вообще стали не нужны друг другу: они жили отдельно и вели свою личную жизнь.&lt;p&gt;У Петра была своя фаворитка – Елизавета Воронцова. А Екатерина даже рожала детей от своих фаворитов: в 1757 году она родила дочь Анну от Станислава Понятовского, а в 1762 году – сына от Григория Орлова (но эта информация, естественно, была неофициальная, а значит со 100-процентной вероятностью об этих фактах говорить нельзя). Позже Екатерина Вторая совершит дворцовый переворот, арестует Петра и завладеет престолом.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Анна Леопольдовна умерла при родах своего пятого ребёнка, названного Алексеем.</t>
+  </si>
+  <si>
+    <t>Родился Павел I Петрович.</t>
+  </si>
+  <si>
+    <t>Правитель - Елизавета Петровна. Наследник - Пётр III Фёдорович.</t>
+  </si>
+  <si>
+    <t>Елизавета Петровна умерла. На престол взошёл император Пётр III Фёдорович.</t>
+  </si>
+  <si>
+    <t>Екатерина II организовала гвардейский переворот и свергла своего мужа Петра III, который вскоре погиб в тюрьме.</t>
+  </si>
+  <si>
+    <t>Погиб Иоанн VI Антонович.</t>
+  </si>
+  <si>
+    <t>Всё правление Елизаветы Петровны в заключении подрастал бывший император Иоанн VI Антонович. После дворцового переворота 1740 года, годовалый император вместе с родителями был арестован. Их перевозили из одной тюрьмы в другую: из Петербурга в Ригу, оттуда в Динамюнде, потом в Раненбург. В конце концов мальчика разлучили с родителями и отвезли в Холмогоры. Позже туда привезли и всю остальную семью, но они жили отдельно и не знали ничего друг о друге. В 1756 году Иоанна Антоновича тайно перевезли в Шлиссельбургскую крепость, где подростка содержали в особом каземате с жёсткими условиями. И всё же узник не был обычным заключённым – это всё-таки был бывший император. Он в разное время виделся и с Елизаветой Петровной, и с Петром III, и с Екатериной II. Последняя подумывала о том, чтобы постричь Ивана в монахи и отправить в какой-нибудь глухой монастырь.&lt;p&gt;5 [16] июля 1764 года подпоручик В.Я. Мирович решился освободить бывшего императора из заточения. При попытке освобождения Иоанн Антонович был заколот шпагами. Так Иоанн VI стал жертвой Эпохи дворцовых переворотов: получив власть и лишившись её во младенчестве, оставшиеся 24 года он расплачивался за это, находясь в заключении и убитый во время попытки освобождения. Бывший император был тайно похоронен в Шлиссельбургской крепости, могила его неизвестна.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Правитель - Екатерина II. Наследник - Павел I.</t>
+  </si>
+  <si>
+    <t>Екатерина II привила себя и своего сына Павла I от оспы.</t>
+  </si>
+  <si>
+    <t>29 сентября [10 октября] 1773 года состоялась свадьба Великого князя Павла Петровича и принцессы Августы-Вильгельмины-Луизы Гессен-Дармштадтской. С неё началась традиция гессенских принцесс в Российском Императорском Доме; в XIX веке трое родственниц Вильгельмины вышли замуж за Романовых. За полтора месяца до свадьбы, 14 [25] августа, она приняла православие с именем Натальи Алексеевны.</t>
+  </si>
+  <si>
+    <t>Екатерина II тайно вышла замуж за Григория Потёмкина.</t>
+  </si>
+  <si>
+    <t>Казнён Емельян Пугачёв, организатор крестьянского восстания.</t>
+  </si>
+  <si>
+    <t>Умерла Наталия Алексеевна, Павел I женился во второй раз на Марие Фёдоровне (София-Доротея-Августа-Луиза)</t>
+  </si>
+  <si>
+    <t>Родился Александр Павлович.</t>
+  </si>
+  <si>
+    <t>Родился Константин Павлович.</t>
+  </si>
+  <si>
+    <t>Дети Анны Леопольдовны были освобождены и перевезены за границу.</t>
+  </si>
+  <si>
+    <t>Александр Павлович женился на Елизавете Алексеевне (Луиза-Мария-Августа)</t>
+  </si>
+  <si>
+    <t>28 сентября [9 октября] 1793 года состоялась свадьба Великого князя Александра Павловича и баденской принцессы Луизы-Марии-Августы (до этого она приняла православие с именем Елизавета Алексеевна). Александру на момент свадьбы было всего 15 лет, а его супруге 14. В браке детей у них не было, поэтому после Александра престол перешёл к его брату Николаю (Константин отрёкся).</t>
+  </si>
+  <si>
+    <t>Родилась Анна Павловна, а через вскоре умерла Ольга Павловна.</t>
+  </si>
+  <si>
+    <t>Умерла Екатерина II, на престол взошёл Павел I.</t>
+  </si>
+  <si>
+    <t>25 июня [6 июля] 1796 года у Павла Петровича и Марии Фёдоровны родился третий сын Николай, будущий император Николай I. Таким образом, Екатерина II застала рождение трёх внуков-мальчиков, двое из которых впоследствии стали императорами. Согласно слухам, незадолго до своей смерти императрица подумывала передать престол внуку Александру в обход сына Павла. Но этим планам не суждено было сбыться – 6 [17] ноября 1796 императрица Екатерина Великая умерла от инсульта. Её правление длилось 34 года, и всё это время своего часа ждал законный наследник, Павел Первый. &lt;p&gt;Наконец, его время пришло. Сразу же по восшествии на престол Павел Первый решил почтить память отца, императора Петра III, который за полгода своего царствования так и не успел короноваться. В декабре 1796 года состоялась необычная церемония: останки Петра Фёдоровича были извлечены из Благовещенской церкви Александро-Невской Лавры, где он был похоронен, а затем Павел наложил на них императорскую корону. Затем траурная процессия с телом Петра III прошла от Александро-Невской Лавры до Зимнего дворца, причём императорские регалии несли убийцы Петра, Алексей Орлов и Фёдор Барятинский. Оттуда уже два гроба, Петра III и Екатерины II отправились в Петропавловский собор (усыпальницу Романовых, начиная с Петра I), где и были захоронены.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Павел I издал новый указ о престолонаследии, положивший конец путанице при передаче власти.</t>
+  </si>
+  <si>
+    <t>[73, 77]</t>
+  </si>
+  <si>
+    <t>Правитель - Павел Первый. Наследник - Александр Первый.</t>
+  </si>
+  <si>
+    <t>Состоялись свадьбы Елены Павловны с Фридрихом-Людвигом и Александры Павловны с Иосифом-Антоном.</t>
+  </si>
+  <si>
+    <t>Павел I был убит в результате заговора. На престол взошёл Александр I.</t>
+  </si>
+  <si>
+    <t>Эта родословная охватывает период с 1612 по 1801 год. Здесь вы можете посмотреть, какое было положение дел на конкретный момент: кто был жив, кто мёртв, кому сколько было лет, кто правил в тот период. Также вы можете получить краткую историческую информацию - что происходило в определённый год. Личности, о которых идёт речь, подсвечены отдельно. Для запуска родословной просто передвиньте ползунок!</t>
+  </si>
+  <si>
+    <t>16 [26] января 1648 года состоялась свадьба Алексея Михайловича и дочери стольника Марии Ильиничны Милославской. Эту кандидатуру ему посоветовал воспитатель царя, боярин Б.И. Морозов, который сам женился её сестре. В счастливом браке с Марией Милославской у Алексея Михайловича родилось 13 детей, трое из них были в какое-то время правителями страны.</t>
+  </si>
+  <si>
+    <t>17 [27] сентября 1657 года у царя Алексея Михайловича родилась дочь, названная Софьей. Наличие у царя наследников и то, что Софья была девушкой, не предполагало, что она когда-нибудь окажется на троне. Однако Софья, благодаря своему целеустремлённому характеру, боролась за власть наравне со своими братьями, организовывая стрелецкие бунты и строя интриги при дворе. Но в конце концов царевна закончила свои дни в заточении в монастыре.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 января [7 февраля] 1693 года у Ивана Алексеевича родилась дочь, названная Анной. Впоследствии она придёт к власти в результате дворцового переворота, и будет находиться на престоле целых 7 лет. </t>
+  </si>
+  <si>
+    <t>5 [16] февраля Пётр Первый издал устав «О престолонаследии». Согласно этому документу, самодержец мог сам назначать преемника. Таким образом, отменялся традиционный порядок наследования престола от отца к сыну. Однако новый порядок ещё более запутал процедуру престолонаследия: сам Пётр успел выбрать преемника (точнее он менял своё мнение, но так и не определился), что во многом предопределило дальнейшие события, вошедшие в историю как Эпоха дворцовых переворотов.</t>
+  </si>
+  <si>
+    <t>28 января [8 февраля] 1725 года умер император Пётр Великий. В 1724 году он назначил преемницей свою супругу, Екатерину Первую. Однако незадолго до смерти, узнав об измене жены, Пётр отменил своё решение. Нового наследника Пётр Алексеевич не назначил. Это привело к тому, что наследника пришлось выбирать ограниченному кругу лиц придворной знати. Одни (Меншиков, Головкин и др.) были за супругу Петра Алексеевича Екатерину Алексеевну; вторые (Голицыны, Долгорукие и др.) выступали за передачу власти внуку Петра I, Петру II Алексеевичу.&lt;p&gt;В итоге А.Д. Меншиковым была задействована гвардия: преображенцы и семёновцы потребовали провозгласить императрицей Екатерину I. Так, бывшая «портомоя» стала самодержавной правительницей огромной империи. Подобные «выборы» с участием гвардии стали часто случаться в ближайшие десятилетия, так что последующий период был назван «Эпохой дворцовых переворотов».&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Учреждён Верховный Тайный Совет для помощи императрице в управлении государством.</t>
+  </si>
+  <si>
+    <t>Пётр II умер. Императрицей выбрали Анну Иоанновну, но попытки ограничить её власть провалились.</t>
+  </si>
+  <si>
+    <t>В самом начале января Пётр Второй простудился, а потом заболел оспой. В ночь на 19 [30] января 1730 14-летний император скончался. Знать, которая съехалась в Москву на свадьбу Петра и Екатерины, оказалась на похоронах жениха. В отличие от ближайших предшественников, Пётр Алексеевич был похоронен в Архангельском соборе Московского Кремля, старой усыпальнице российских государей.&lt;p&gt;Снова начался процесс выбора наследника, который лёг на плечи Верховного тайного совета. Из тех Романовых, которые остались в живых, выбор был не велик. Анна Петровна к тому моменту уже умерла. Елизавету Петровну не рассматривали в качестве кандидата, так как о тестаменте Екатерины Первой вовсе забыли. При таком раскладе пришлось обратиться к соседней ветви «Иоанновичей» – детей брата Петра Иоанна V. Екатерина Иоанновна неудачно вышла замуж, родила дочь и вернулась в Россию, но она не была разведена. Это было оправданием тому, чтобы не звать её – хотя на самом деле, Верховный тайный Совет просто опасался Екатерину Иоанновну за её независимый нрав. Прасковья Иоанновна жила в морганатическом браке (хотя в том же году умер и её муж). Оставалась Анна Иоанновна, которая овдовела сразу же после брака и жила одна в далёкой Митаве, управляя Курляндским герцогством.&lt;/p&gt;&lt;p&gt;Выбор был сделан в пользу Анны Иоанновны. Но прежде чем пригласить её управлять страной, члены Верховного тайного совета решили, что «надо б себе полегчить и воли бы себе прибавить» – то есть ограничить власть императрицы. Так были придуманы так называемые «Кондиции» – условия, выдвинутые Анне Иоанновне, ограничивающие её власть. Но против этого выступили чиновники, которые как раз в то время были все в Москве: они не хотели, чтобы над ними вместо одного монарха стояло ещё с десяток посторонних лиц. В итоге Анна просто разорвала бумагу с предложенными кондициями. Так провалилась попытка ввести в России ограниченную монархию: 4 [15] марта Верховный тайный совет был упразднён, а 28 апреля [9 мая] 1730 года Анна Иоанновна была венчана на царство в Успенском соборе Московского Кремля – она становилась полноправным самодержцем Российской Империи.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>В ночь на 25 ноября [6 декабря] 1741 года Елизавета Петровна явилась в казармы Преображенского полка и подняла солдат на мятеж. Гвардейцы считали Елизавету «своей»,- отсвет величия Петра Первого падал на неё. Для пущего эффекта она надела кирасу и накинула гвардейскую форму. Во главе с Елизаветой Петровной гвардейцы двинулись к Зимнему дворцу.&lt;p&gt;Ни Анна Леопольдовна, ни Антон-Ульрих не оказали никакого сопротивления. Они были арестованы, и уже на следующий день был опубликован манифест о восшествии на престол императрицы Елизаветы Петровны. Её венчание на царство состоялась через полгода, 25 апреля [6 мая] 1742 в Успенском соборе Московского Кремля, и Елизавета Петровна сама надела на свою голову императорскую корону.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Елизавета Петровна тайно венчалась с графом Алексеем Разумовским.</t>
+  </si>
+  <si>
+    <t>Павел I женился на Наталии Алексеевне (Августа-Вильгельмина-Луиза)</t>
+  </si>
+  <si>
+    <t>15 [26] апреля 1776 года при неудачных родах умерла жена Павла Петровича, Наталия Алексеевна. Отношения у супругов были плохими, так что Павел даже не присутствовал на похоронах. Меньше, чем через полгода состоялась новая свадьба: 26 сентября [7 октября] 1776 года состоялась свадьба Великого князя Павла Петровича и принцессы Вюртенбергской, Софии-Доротеи-Августы-Луизы (до этого она приняла православие с именем Мария Фёдоровна). Она была племянницей Фридриха Великого, короля Пруссии. Правда она была помолвлена с Людвигом Гессен-Дармштадтским, братом Натальи Алексеевны, так что с ним пришлось договариваться деньгами. Новый брак сложился удачно – у Павла Петровича и Марии Фёдоровны было 10 детей.</t>
+  </si>
+  <si>
+    <t>За полгода царствования, император Пётр III сумел настроить против себя практически всех: армию, дворян, духовенство… Его жена, Екатерина II, чувствуя благоприятность ситуации, решилась на дворцовый переворот. 28 июня [9 июля] 1762 года с помощью своих фаворитов, братьев Алексея и Григория Орловых, Екатерина поехала из Петергофа в Петербург, где ей присягнула гвардия. Пётр III, будучи в Ораниенбауме, рванулся в Петергоф, а оттуда в Кронштадт, но туда его не пустили войска, принявшие Екатерину новой императрицей. Тогда Пётр Фёдорович вернулся обратно в Ораниенбаум и на следующий день отправил письмо супруге, в котором отрёкся от престола.&lt;p&gt;Свергнутый император был арестован и вместе со своей фавориткой графиней Елизаветой Воронцовой отправлен в Петергоф. Там их разлучили и Петра отправили в Ропшу, откуда планировали перевезти в Шлиссельбург. Но где-то между 3 и 6 [14 и 17] июля Пётр III был убит братьями Орловыми и их соратниками. Официально было объявлено, что бывший император скончался от «геморроидальных колик». А Екатерина Вторая 22 сентября [3 октября] 1762 года была венчана на царство в Успенском соборе Московского Кремля. Бывшая немецкая принцесса София-Фредерика-Августа стала самодержавной правительницей Российской Империи, вошедшей в историю как Екатерина Великая.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -710,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,6 +899,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,14 +1189,14 @@
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="135.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1045,11 +1222,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>211</v>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1234,13 @@
         <v>1613</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>190</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,7 +1248,10 @@
         <v>1614</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,7 +1259,10 @@
         <v>1615</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1270,10 @@
         <v>1616</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1281,10 @@
         <v>1617</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,13 +1292,13 @@
         <v>1618</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>187</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1306,10 @@
         <v>1619</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,7 +1317,10 @@
         <v>1620</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1328,10 @@
         <v>1621</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1339,10 @@
         <v>1622</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1350,10 @@
         <v>1623</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1361,13 @@
         <v>1624</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>184</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1375,10 @@
         <v>1625</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1386,13 @@
         <v>1626</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>181</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1400,13 @@
         <v>1627</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>193</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1414,10 @@
         <v>1628</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,13 +1425,13 @@
         <v>1629</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>196</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1439,10 @@
         <v>1630</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1450,13 @@
         <v>1631</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>199</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1464,10 @@
         <v>1632</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,13 +1475,13 @@
         <v>1633</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>201</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1489,10 @@
         <v>1634</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1500,10 @@
         <v>1635</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,7 +1511,10 @@
         <v>1636</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,7 +1522,10 @@
         <v>1637</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1533,10 @@
         <v>1638</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,7 +1544,10 @@
         <v>1639</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,7 +1555,10 @@
         <v>1640</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1566,10 @@
         <v>1641</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,7 +1577,10 @@
         <v>1642</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,7 +1588,10 @@
         <v>1643</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1599,10 @@
         <v>1644</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,13 +1610,13 @@
         <v>1645</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>178</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1624,10 @@
         <v>1646</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,7 +1635,10 @@
         <v>1647</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,13 +1646,13 @@
         <v>1648</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>175</v>
+        <v>44</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,13 +1660,13 @@
         <v>1649</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>172</v>
+        <v>43</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1674,10 @@
         <v>1650</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,7 +1685,10 @@
         <v>1651</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1696,10 @@
         <v>1652</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1707,10 @@
         <v>1653</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,7 +1718,13 @@
         <v>1654</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1732,10 @@
         <v>1655</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,7 +1743,10 @@
         <v>1656</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,7 +1754,13 @@
         <v>1657</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,7 +1768,10 @@
         <v>1658</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1779,10 @@
         <v>1659</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,7 +1790,10 @@
         <v>1660</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,7 +1801,13 @@
         <v>1661</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1815,10 @@
         <v>1662</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1826,10 @@
         <v>1663</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1837,10 @@
         <v>1664</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,7 +1848,10 @@
         <v>1665</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,13 +1859,13 @@
         <v>1666</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>169</v>
+        <v>41</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,7 +1873,10 @@
         <v>1667</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,7 +1884,10 @@
         <v>1668</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,13 +1895,13 @@
         <v>1669</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>166</v>
+        <v>39</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,7 +1909,13 @@
         <v>1670</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,13 +1923,13 @@
         <v>1671</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>163</v>
+        <v>104</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,13 +1937,13 @@
         <v>1672</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>161</v>
+        <v>26</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,7 +1951,10 @@
         <v>1673</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1962,10 @@
         <v>1674</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1973,10 @@
         <v>1675</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,13 +1984,13 @@
         <v>1676</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>158</v>
+        <v>37</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,7 +1998,10 @@
         <v>1677</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,7 +2009,10 @@
         <v>1678</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +2020,10 @@
         <v>1679</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,13 +2031,13 @@
         <v>1680</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,13 +2045,13 @@
         <v>1681</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>152</v>
+        <v>113</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,13 +2059,13 @@
         <v>1682</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +2073,10 @@
         <v>1683</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,13 +2084,13 @@
         <v>1684</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,7 +2098,10 @@
         <v>1685</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,7 +2109,10 @@
         <v>1686</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,7 +2120,10 @@
         <v>1687</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,7 +2131,10 @@
         <v>1688</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,13 +2142,13 @@
         <v>1689</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>143</v>
+        <v>116</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,7 +2156,13 @@
         <v>1690</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>3</v>
+        <v>185</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,7 +2170,10 @@
         <v>1691</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,7 +2181,10 @@
         <v>1692</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,7 +2192,13 @@
         <v>1693</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +2206,10 @@
         <v>1694</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,7 +2217,10 @@
         <v>1695</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +2228,13 @@
         <v>1696</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +2242,10 @@
         <v>1697</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,13 +2253,13 @@
         <v>1698</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +2267,13 @@
         <v>1699</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,7 +2281,10 @@
         <v>1700</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +2292,10 @@
         <v>1701</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,13 +2303,13 @@
         <v>1702</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,13 +2317,13 @@
         <v>1703</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>130</v>
+        <v>26</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,13 +2331,13 @@
         <v>1704</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,7 +2345,10 @@
         <v>1705</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +2356,10 @@
         <v>1706</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,7 +2367,10 @@
         <v>1707</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,7 +2378,13 @@
         <v>1708</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,7 +2392,13 @@
         <v>1709</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,13 +2406,13 @@
         <v>1710</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +2420,13 @@
         <v>1711</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,13 +2434,13 @@
         <v>1712</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2448,10 @@
         <v>1713</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,7 +2459,10 @@
         <v>1714</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,13 +2470,13 @@
         <v>1715</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,13 +2484,13 @@
         <v>1716</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,7 +2498,10 @@
         <v>1717</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,13 +2509,13 @@
         <v>1718</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>111</v>
+        <v>201</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,13 +2523,13 @@
         <v>1719</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2537,10 @@
         <v>1720</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2548,13 @@
         <v>1721</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>106</v>
+        <v>26</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2562,13 @@
         <v>1722</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,7 +2576,10 @@
         <v>1723</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,13 +2587,13 @@
         <v>1724</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2601,13 @@
         <v>1725</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,13 +2615,13 @@
         <v>1726</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,13 +2629,13 @@
         <v>1727</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>91</v>
+        <v>129</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,13 +2643,13 @@
         <v>1728</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,13 +2657,13 @@
         <v>1729</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>86</v>
+        <v>130</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,13 +2671,13 @@
         <v>1730</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>84</v>
+        <v>131</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,13 +2685,13 @@
         <v>1731</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>82</v>
+        <v>132</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2699,13 @@
         <v>1732</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>80</v>
+        <v>132</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2713,13 @@
         <v>1733</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>78</v>
+        <v>133</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,7 +2727,10 @@
         <v>1734</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,7 +2738,10 @@
         <v>1735</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,7 +2749,10 @@
         <v>1736</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,7 +2760,10 @@
         <v>1737</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2771,10 @@
         <v>1738</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,13 +2782,13 @@
         <v>1739</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>75</v>
+        <v>134</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,13 +2796,13 @@
         <v>1740</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>73</v>
+        <v>135</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,13 +2810,13 @@
         <v>1741</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,13 +2824,13 @@
         <v>1742</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>68</v>
+        <v>137</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,13 +2838,13 @@
         <v>1743</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,13 +2852,13 @@
         <v>1744</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>62</v>
+        <v>139</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,13 +2866,13 @@
         <v>1745</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>60</v>
+        <v>140</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,13 +2880,13 @@
         <v>1746</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>57</v>
+        <v>141</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,7 +2894,10 @@
         <v>1747</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,7 +2905,10 @@
         <v>1748</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,7 +2916,10 @@
         <v>1749</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,7 +2927,10 @@
         <v>1750</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,7 +2938,10 @@
         <v>1751</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,7 +2949,10 @@
         <v>1752</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,7 +2960,10 @@
         <v>1753</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,13 +2971,13 @@
         <v>1754</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>55</v>
+        <v>142</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,7 +2985,10 @@
         <v>1755</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,7 +2996,10 @@
         <v>1756</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,7 +3007,10 @@
         <v>1757</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +3018,10 @@
         <v>1758</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,7 +3029,10 @@
         <v>1759</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,7 +3040,10 @@
         <v>1760</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,13 +3051,13 @@
         <v>1761</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>52</v>
+        <v>143</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,13 +3065,13 @@
         <v>1762</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>49</v>
+        <v>140</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +3079,10 @@
         <v>1763</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,13 +3090,13 @@
         <v>1764</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>46</v>
+        <v>144</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,7 +3104,10 @@
         <v>1765</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,7 +3115,10 @@
         <v>1766</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,7 +3126,10 @@
         <v>1767</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +3137,13 @@
         <v>1768</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>43</v>
+        <v>142</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +3151,10 @@
         <v>1769</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +3162,10 @@
         <v>1770</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +3173,10 @@
         <v>1771</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,7 +3184,10 @@
         <v>1772</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,13 +3195,13 @@
         <v>1773</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>40</v>
+        <v>145</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,13 +3209,13 @@
         <v>1774</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>37</v>
+        <v>146</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,13 +3223,13 @@
         <v>1775</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>34</v>
+        <v>137</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +3237,13 @@
         <v>1776</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>31</v>
+        <v>147</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +3251,13 @@
         <v>1777</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,7 +3265,10 @@
         <v>1778</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +3276,13 @@
         <v>1779</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>26</v>
+        <v>149</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +3290,13 @@
         <v>1780</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,7 +3304,10 @@
         <v>1781</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,7 +3315,10 @@
         <v>1782</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,7 +3326,10 @@
         <v>1783</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,7 +3337,10 @@
         <v>1784</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,7 +3348,10 @@
         <v>1785</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +3359,10 @@
         <v>1786</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,7 +3370,10 @@
         <v>1787</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,7 +3381,10 @@
         <v>1788</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,7 +3392,10 @@
         <v>1789</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +3403,10 @@
         <v>1790</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +3414,10 @@
         <v>1791</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,7 +3425,10 @@
         <v>1792</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,7 +3436,10 @@
         <v>1793</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +3447,13 @@
         <v>1794</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>20</v>
+        <v>151</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,13 +3461,13 @@
         <v>1795</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>17</v>
+        <v>152</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,13 +3475,13 @@
         <v>1796</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>14</v>
+        <v>153</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -2943,13 +3489,13 @@
         <v>1797</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>11</v>
+        <v>154</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,7 +3503,10 @@
         <v>1798</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>3</v>
+        <v>251</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +3514,13 @@
         <v>1799</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>9</v>
+        <v>155</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +3528,10 @@
         <v>1800</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>3</v>
+        <v>251</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,13 +3539,13 @@
         <v>1801</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/history.xlsx
+++ b/src/history.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
   <si>
     <t>year</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>[42, 55, 61, 67]</t>
+  </si>
+  <si>
+    <t>[66, 73, 77]</t>
+  </si>
+  <si>
+    <t>Эта родословная охватывает период с 1612 по 1801 год. Здесь вы можете посмотреть, какое было положение дел на конкретый момент: кто был жив, кто мёртв, кому сколько было лет, кто правил в тот период. Также вы можете получить краткую историческую информацию - что происходило в определённый год. Личности, о которых идёт речь, подсвечены отдельно. Для запуска родословной просто передвиньте ползунок!</t>
+  </si>
+  <si>
+    <t>Добро пожаловать на сайт интерактивной родословной династии Романовых!</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D165" sqref="A1:D191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1036,8 +1045,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,9 +1073,6 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1072,9 +1081,6 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1083,9 +1089,6 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1094,9 +1097,6 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1119,9 +1119,6 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1130,9 +1127,6 @@
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1141,9 +1135,6 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1152,9 +1143,6 @@
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1163,9 +1151,6 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1188,9 +1173,6 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1227,9 +1209,6 @@
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1252,9 +1231,6 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1277,9 +1253,6 @@
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1302,9 +1275,6 @@
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1313,9 +1283,6 @@
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1324,9 +1291,6 @@
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1335,9 +1299,6 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1346,9 +1307,6 @@
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1357,9 +1315,6 @@
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1368,9 +1323,6 @@
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1379,9 +1331,6 @@
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1390,9 +1339,6 @@
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1401,9 +1347,6 @@
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -1412,9 +1355,6 @@
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -1437,9 +1377,6 @@
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1448,9 +1385,6 @@
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1487,9 +1421,6 @@
       <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
@@ -1498,9 +1429,6 @@
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -1509,9 +1437,6 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -1520,9 +1445,6 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1531,9 +1453,6 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1542,9 +1461,6 @@
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1553,9 +1469,6 @@
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
@@ -1564,9 +1477,6 @@
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -1575,9 +1485,6 @@
       <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -1586,9 +1493,6 @@
       <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1597,9 +1501,6 @@
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1608,9 +1509,6 @@
       <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -1619,9 +1517,6 @@
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1630,9 +1525,6 @@
       <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1641,9 +1533,6 @@
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -1652,9 +1541,6 @@
       <c r="B55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -1677,9 +1563,6 @@
       <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1688,9 +1571,6 @@
       <c r="B58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1713,9 +1593,6 @@
       <c r="B60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1752,9 +1629,6 @@
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1763,9 +1637,6 @@
       <c r="B64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1774,9 +1645,6 @@
       <c r="B65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1799,9 +1667,6 @@
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -1810,9 +1675,6 @@
       <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -1821,9 +1683,6 @@
       <c r="B69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
@@ -1874,9 +1733,6 @@
       <c r="B73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -1899,9 +1755,6 @@
       <c r="B75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -1910,9 +1763,6 @@
       <c r="B76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
@@ -1921,9 +1771,6 @@
       <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -1932,9 +1779,6 @@
       <c r="B78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -1957,9 +1801,6 @@
       <c r="B80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -1968,9 +1809,6 @@
       <c r="B81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
@@ -1979,9 +1817,6 @@
       <c r="B82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -1990,9 +1825,6 @@
       <c r="B83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
@@ -2001,9 +1833,6 @@
       <c r="B84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
@@ -2012,9 +1841,6 @@
       <c r="B85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2037,9 +1863,6 @@
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2076,9 +1899,6 @@
       <c r="B90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -2087,9 +1907,6 @@
       <c r="B91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2140,9 +1957,6 @@
       <c r="B95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -2151,9 +1965,6 @@
       <c r="B96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
@@ -2162,9 +1973,6 @@
       <c r="B97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -2173,9 +1981,6 @@
       <c r="B98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2184,9 +1989,6 @@
       <c r="B99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
@@ -2237,9 +2039,6 @@
       <c r="B103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -2248,9 +2047,6 @@
       <c r="B104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
@@ -2287,9 +2083,6 @@
       <c r="B107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2326,9 +2119,6 @@
       <c r="B110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
@@ -2365,9 +2155,6 @@
       <c r="B113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
@@ -2516,9 +2303,6 @@
       <c r="B124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
@@ -2527,9 +2311,6 @@
       <c r="B125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
@@ -2538,9 +2319,6 @@
       <c r="B126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
@@ -2549,9 +2327,6 @@
       <c r="B127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
@@ -2560,9 +2335,6 @@
       <c r="B128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
@@ -2683,9 +2455,6 @@
       <c r="B137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
@@ -2694,9 +2463,6 @@
       <c r="B138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
@@ -2705,9 +2471,6 @@
       <c r="B139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
@@ -2716,9 +2479,6 @@
       <c r="B140" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
@@ -2727,9 +2487,6 @@
       <c r="B141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
@@ -2738,9 +2495,6 @@
       <c r="B142" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
@@ -2749,9 +2503,6 @@
       <c r="B143" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
@@ -2774,9 +2525,6 @@
       <c r="B145" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
@@ -2785,9 +2533,6 @@
       <c r="B146" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
@@ -2796,9 +2541,6 @@
       <c r="B147" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
@@ -2807,9 +2549,6 @@
       <c r="B148" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
@@ -2818,9 +2557,6 @@
       <c r="B149" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
@@ -2829,9 +2565,6 @@
       <c r="B150" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
@@ -2868,9 +2601,6 @@
       <c r="B153" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
@@ -2893,9 +2623,6 @@
       <c r="B155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
@@ -2904,9 +2631,6 @@
       <c r="B156" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
@@ -2915,9 +2639,6 @@
       <c r="B157" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
@@ -2940,9 +2661,6 @@
       <c r="B159" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
@@ -2951,9 +2669,6 @@
       <c r="B160" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
@@ -2962,9 +2677,6 @@
       <c r="B161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
@@ -2973,9 +2685,6 @@
       <c r="B162" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
@@ -3038,7 +2747,7 @@
         <v>1777</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>29</v>
@@ -3054,9 +2763,6 @@
       <c r="B168" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
@@ -3093,9 +2799,6 @@
       <c r="B171" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
@@ -3104,9 +2807,6 @@
       <c r="B172" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
@@ -3115,9 +2815,6 @@
       <c r="B173" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
@@ -3126,9 +2823,6 @@
       <c r="B174" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
@@ -3137,9 +2831,6 @@
       <c r="B175" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
@@ -3148,9 +2839,6 @@
       <c r="B176" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
@@ -3159,9 +2847,6 @@
       <c r="B177" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
@@ -3170,9 +2855,6 @@
       <c r="B178" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
@@ -3181,9 +2863,6 @@
       <c r="B179" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
@@ -3192,9 +2871,6 @@
       <c r="B180" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
@@ -3203,9 +2879,6 @@
       <c r="B181" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
@@ -3214,9 +2887,6 @@
       <c r="B182" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
@@ -3225,9 +2895,6 @@
       <c r="B183" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
@@ -3292,9 +2959,6 @@
       <c r="B188" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
@@ -3316,9 +2980,6 @@
       </c>
       <c r="B190" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
